--- a/team_folder/newFolder/Project Management/Logging/Meeting Report.xlsx
+++ b/team_folder/newFolder/Project Management/Logging/Meeting Report.xlsx
@@ -14,9 +14,6 @@
   <sheets>
     <sheet name="Weekly Meeting Costs" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Weekly Meeting Costs'!$A$2:$J$2</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="0">'Weekly Meeting Costs'!$A$2:$J$21</definedName>
@@ -51,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="26">
   <si>
     <t>Cost</t>
   </si>
@@ -110,9 +107,6 @@
     <t>Zack</t>
   </si>
   <si>
-    <t>Unit Cost</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -126,6 +120,12 @@
   </si>
   <si>
     <t>Per Person</t>
+  </si>
+  <si>
+    <t>Assigned Tasks and talked about what is needed for following week</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reviewed what was completed, what the next tasks needed. Demo'd changes </t>
   </si>
 </sst>
 </file>
@@ -554,59 +554,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Overview"/>
-      <sheetName val="CDR Project Planner"/>
-      <sheetName val="Bach Planner"/>
-      <sheetName val="Brandon Planner"/>
-      <sheetName val="Cody Planner"/>
-      <sheetName val="Peter Planner"/>
-      <sheetName val="Zack Planner"/>
-      <sheetName val="Burn Report"/>
-      <sheetName val="PDR Project Planner"/>
-      <sheetName val="Metrics"/>
-      <sheetName val="Andrei Planner"/>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Andrei Cost"/>
-      <sheetName val="Bach Cost"/>
-      <sheetName val="Brandon Cost"/>
-      <sheetName val="Cody Cost"/>
-      <sheetName val="Peter Cost"/>
-      <sheetName val="Zack Cost"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="C1">
-            <v>100</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -876,7 +823,7 @@
   <dimension ref="A1:AMK26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -890,20 +837,21 @@
     <col min="12" max="12" width="9.33203125" style="2" customWidth="1"/>
     <col min="13" max="14" width="8.6640625" style="2" customWidth="1"/>
     <col min="15" max="15" width="15" style="2" customWidth="1"/>
-    <col min="16" max="16" width="10.44140625" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="17" width="8.88671875" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="18" max="21" width="10.44140625" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="10.44140625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="10.44140625" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="8.88671875" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="21" width="10.44140625" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="10.44140625" style="2" customWidth="1" collapsed="1"/>
     <col min="23" max="23" width="19.6640625" style="2" customWidth="1"/>
-    <col min="24" max="29" width="8.6640625" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="30" max="1025" width="8.6640625" style="2" customWidth="1"/>
+    <col min="24" max="29" width="8.6640625" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="30" max="30" width="8.6640625" style="2" customWidth="1" collapsed="1"/>
+    <col min="31" max="1025" width="8.6640625" style="2" customWidth="1"/>
     <col min="1026" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="38"/>
       <c r="B1" s="37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" s="36"/>
       <c r="D1" s="36"/>
@@ -915,19 +863,19 @@
       <c r="J1" s="35"/>
       <c r="K1" s="34"/>
       <c r="O1" s="33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q1" s="33"/>
       <c r="W1" s="22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="30" t="s">
         <v>7</v>
@@ -953,12 +901,7 @@
       <c r="J2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" s="2">
-        <v>100</v>
-      </c>
+      <c r="L2" s="22"/>
       <c r="P2" s="22" t="s">
         <v>6</v>
       </c>
@@ -1025,32 +968,32 @@
         <v>1</v>
       </c>
       <c r="J3" s="15">
-        <f>SUM(D3:I3)*[1]Overview!$C$1*C3</f>
+        <f>SUM(D3:I3)*100*C3</f>
         <v>300</v>
       </c>
       <c r="L3" s="22"/>
       <c r="P3" s="9">
-        <f>IF(D3=1,[1]Overview!$C$1*$C3,0)</f>
+        <f>IF(D3=1,100*$C3,0)</f>
         <v>50</v>
       </c>
       <c r="Q3" s="9">
-        <f>IF(E3=1,[1]Overview!$C$1*$C3,0)</f>
+        <f t="shared" ref="Q3:U3" si="0">IF(E3=1,100*$C3,0)</f>
         <v>50</v>
       </c>
       <c r="R3" s="9">
-        <f>IF(F3=1,[1]Overview!$C$1*$C3,0)</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="S3" s="9">
-        <f>IF(G3=1,[1]Overview!$C$1*$C3,0)</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="T3" s="9">
-        <f>IF(H3=1,[1]Overview!$C$1*$C3,0)</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="U3" s="9">
-        <f>IF(I3=1,[1]Overview!$C$1*$C3,0)</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="V3" s="9"/>
@@ -1059,23 +1002,23 @@
         <v>0.5</v>
       </c>
       <c r="Y3" s="2">
-        <f>IF(E3=1,$C3,0)</f>
+        <f t="shared" ref="Y3:Y24" si="1">IF(E3=1,$C3,0)</f>
         <v>0.5</v>
       </c>
       <c r="Z3" s="2">
-        <f>IF(F3=1,$C3,0)</f>
+        <f t="shared" ref="Z3:Z24" si="2">IF(F3=1,$C3,0)</f>
         <v>0.5</v>
       </c>
       <c r="AA3" s="2">
-        <f>IF(G3=1,$C3,0)</f>
+        <f t="shared" ref="AA3:AA24" si="3">IF(G3=1,$C3,0)</f>
         <v>0.5</v>
       </c>
       <c r="AB3" s="2">
-        <f>IF(H3=1,$C3,0)</f>
+        <f t="shared" ref="AB3:AB24" si="4">IF(H3=1,$C3,0)</f>
         <v>0.5</v>
       </c>
       <c r="AC3" s="2">
-        <f>IF(I3=1,$C3,0)</f>
+        <f t="shared" ref="AC3:AC24" si="5">IF(I3=1,$C3,0)</f>
         <v>0.5</v>
       </c>
     </row>
@@ -1106,56 +1049,56 @@
         <v>1</v>
       </c>
       <c r="J4" s="15">
-        <f>SUM(D4:I4)*[1]Overview!$C$1*C4</f>
+        <f t="shared" ref="J4:J24" si="6">SUM(D4:I4)*100*C4</f>
         <v>300</v>
       </c>
       <c r="P4" s="9">
-        <f>IF(D4=1,[1]Overview!$C$1*$C4,0)</f>
+        <f t="shared" ref="P4:P24" si="7">IF(D4=1,100*$C4,0)</f>
         <v>50</v>
       </c>
       <c r="Q4" s="9">
-        <f>IF(E4=1,[1]Overview!$C$1*$C4,0)</f>
+        <f t="shared" ref="Q4:Q24" si="8">IF(E4=1,100*$C4,0)</f>
         <v>50</v>
       </c>
       <c r="R4" s="9">
-        <f>IF(F4=1,[1]Overview!$C$1*$C4,0)</f>
+        <f t="shared" ref="R4:R24" si="9">IF(F4=1,100*$C4,0)</f>
         <v>50</v>
       </c>
       <c r="S4" s="9">
-        <f>IF(G4=1,[1]Overview!$C$1*$C4,0)</f>
+        <f t="shared" ref="S4:S24" si="10">IF(G4=1,100*$C4,0)</f>
         <v>50</v>
       </c>
       <c r="T4" s="9">
-        <f>IF(H4=1,[1]Overview!$C$1*$C4,0)</f>
+        <f t="shared" ref="T4:T24" si="11">IF(H4=1,100*$C4,0)</f>
         <v>50</v>
       </c>
       <c r="U4" s="9">
-        <f>IF(I4=1,[1]Overview!$C$1*$C4,0)</f>
+        <f t="shared" ref="U4:U24" si="12">IF(I4=1,100*$C4,0)</f>
         <v>50</v>
       </c>
       <c r="V4" s="9"/>
       <c r="X4" s="2">
-        <f>IF(D4=1,$C4,0)</f>
+        <f t="shared" ref="X4:X24" si="13">IF(D4=1,$C4,0)</f>
         <v>0.5</v>
       </c>
       <c r="Y4" s="2">
-        <f>IF(E4=1,$C4,0)</f>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="Z4" s="2">
-        <f>IF(F4=1,$C4,0)</f>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="AA4" s="2">
-        <f>IF(G4=1,$C4,0)</f>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="AB4" s="2">
-        <f>IF(H4=1,$C4,0)</f>
+        <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
       <c r="AC4" s="2">
-        <f>IF(I4=1,$C4,0)</f>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
     </row>
@@ -1186,56 +1129,56 @@
         <v>1</v>
       </c>
       <c r="J5" s="15">
-        <f>SUM(D5:I5)*[1]Overview!$C$1*C5</f>
+        <f t="shared" si="6"/>
         <v>300</v>
       </c>
       <c r="P5" s="9">
-        <f>IF(D5=1,[1]Overview!$C$1*$C5,0)</f>
+        <f t="shared" si="7"/>
         <v>50</v>
       </c>
       <c r="Q5" s="9">
-        <f>IF(E5=1,[1]Overview!$C$1*$C5,0)</f>
+        <f t="shared" si="8"/>
         <v>50</v>
       </c>
       <c r="R5" s="9">
-        <f>IF(F5=1,[1]Overview!$C$1*$C5,0)</f>
+        <f t="shared" si="9"/>
         <v>50</v>
       </c>
       <c r="S5" s="9">
-        <f>IF(G5=1,[1]Overview!$C$1*$C5,0)</f>
+        <f t="shared" si="10"/>
         <v>50</v>
       </c>
       <c r="T5" s="9">
-        <f>IF(H5=1,[1]Overview!$C$1*$C5,0)</f>
+        <f t="shared" si="11"/>
         <v>50</v>
       </c>
       <c r="U5" s="9">
-        <f>IF(I5=1,[1]Overview!$C$1*$C5,0)</f>
+        <f t="shared" si="12"/>
         <v>50</v>
       </c>
       <c r="V5" s="9"/>
       <c r="X5" s="2">
-        <f>IF(D5=1,$C5,0)</f>
+        <f t="shared" si="13"/>
         <v>0.5</v>
       </c>
       <c r="Y5" s="2">
-        <f>IF(E5=1,$C5,0)</f>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="Z5" s="2">
-        <f>IF(F5=1,$C5,0)</f>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="AA5" s="2">
-        <f>IF(G5=1,$C5,0)</f>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="AB5" s="2">
-        <f>IF(H5=1,$C5,0)</f>
+        <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
       <c r="AC5" s="2">
-        <f>IF(I5=1,$C5,0)</f>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
     </row>
@@ -1264,56 +1207,56 @@
         <v>1</v>
       </c>
       <c r="J6" s="15">
-        <f>SUM(D6:I6)*[1]Overview!$C$1*C6</f>
+        <f t="shared" si="6"/>
         <v>375</v>
       </c>
       <c r="P6" s="9">
-        <f>IF(D6=1,[1]Overview!$C$1*$C6,0)</f>
+        <f t="shared" si="7"/>
         <v>75</v>
       </c>
       <c r="Q6" s="9">
-        <f>IF(E6=1,[1]Overview!$C$1*$C6,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R6" s="9">
-        <f>IF(F6=1,[1]Overview!$C$1*$C6,0)</f>
+        <f t="shared" si="9"/>
         <v>75</v>
       </c>
       <c r="S6" s="9">
-        <f>IF(G6=1,[1]Overview!$C$1*$C6,0)</f>
+        <f t="shared" si="10"/>
         <v>75</v>
       </c>
       <c r="T6" s="9">
-        <f>IF(H6=1,[1]Overview!$C$1*$C6,0)</f>
+        <f t="shared" si="11"/>
         <v>75</v>
       </c>
       <c r="U6" s="9">
-        <f>IF(I6=1,[1]Overview!$C$1*$C6,0)</f>
+        <f t="shared" si="12"/>
         <v>75</v>
       </c>
       <c r="V6" s="9"/>
       <c r="X6" s="2">
-        <f>IF(D6=1,$C6,0)</f>
+        <f t="shared" si="13"/>
         <v>0.75</v>
       </c>
       <c r="Y6" s="2">
-        <f>IF(E6=1,$C6,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Z6" s="2">
-        <f>IF(F6=1,$C6,0)</f>
+        <f t="shared" si="2"/>
         <v>0.75</v>
       </c>
       <c r="AA6" s="2">
-        <f>IF(G6=1,$C6,0)</f>
+        <f t="shared" si="3"/>
         <v>0.75</v>
       </c>
       <c r="AB6" s="2">
-        <f>IF(H6=1,$C6,0)</f>
+        <f t="shared" si="4"/>
         <v>0.75</v>
       </c>
       <c r="AC6" s="2">
-        <f>IF(I6=1,$C6,0)</f>
+        <f t="shared" si="5"/>
         <v>0.75</v>
       </c>
     </row>
@@ -1346,56 +1289,56 @@
         <v>1</v>
       </c>
       <c r="J7" s="15">
-        <f>SUM(D7:I7)*[1]Overview!$C$1*C7</f>
+        <f t="shared" si="6"/>
         <v>600</v>
       </c>
       <c r="P7" s="9">
-        <f>IF(D7=1,[1]Overview!$C$1*$C7,0)</f>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="Q7" s="9">
-        <f>IF(E7=1,[1]Overview!$C$1*$C7,0)</f>
+        <f t="shared" si="8"/>
         <v>100</v>
       </c>
       <c r="R7" s="9">
-        <f>IF(F7=1,[1]Overview!$C$1*$C7,0)</f>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
       <c r="S7" s="9">
-        <f>IF(G7=1,[1]Overview!$C$1*$C7,0)</f>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="T7" s="9">
-        <f>IF(H7=1,[1]Overview!$C$1*$C7,0)</f>
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
       <c r="U7" s="9">
-        <f>IF(I7=1,[1]Overview!$C$1*$C7,0)</f>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
       <c r="V7" s="9"/>
       <c r="X7" s="2">
-        <f>IF(D7=1,$C7,0)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="Y7" s="2">
-        <f>IF(E7=1,$C7,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="Z7" s="2">
-        <f>IF(F7=1,$C7,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AA7" s="2">
-        <f>IF(G7=1,$C7,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AB7" s="2">
-        <f>IF(H7=1,$C7,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AC7" s="2">
-        <f>IF(I7=1,$C7,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -1426,56 +1369,56 @@
         <v>1</v>
       </c>
       <c r="J8" s="15">
-        <f>SUM(D8:I8)*[1]Overview!$C$1*C8</f>
+        <f t="shared" si="6"/>
         <v>500</v>
       </c>
       <c r="P8" s="9">
-        <f>IF(D8=1,[1]Overview!$C$1*$C8,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q8" s="9">
-        <f>IF(E8=1,[1]Overview!$C$1*$C8,0)</f>
+        <f t="shared" si="8"/>
         <v>100</v>
       </c>
       <c r="R8" s="9">
-        <f>IF(F8=1,[1]Overview!$C$1*$C8,0)</f>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
       <c r="S8" s="9">
-        <f>IF(G8=1,[1]Overview!$C$1*$C8,0)</f>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="T8" s="9">
-        <f>IF(H8=1,[1]Overview!$C$1*$C8,0)</f>
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
       <c r="U8" s="9">
-        <f>IF(I8=1,[1]Overview!$C$1*$C8,0)</f>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
       <c r="V8" s="9"/>
       <c r="X8" s="2">
-        <f>IF(D8=1,$C8,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Y8" s="2">
-        <f>IF(E8=1,$C8,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="Z8" s="2">
-        <f>IF(F8=1,$C8,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AA8" s="2">
-        <f>IF(G8=1,$C8,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AB8" s="2">
-        <f>IF(H8=1,$C8,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AC8" s="2">
-        <f>IF(I8=1,$C8,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -1508,56 +1451,56 @@
         <v>1</v>
       </c>
       <c r="J9" s="15">
-        <f>SUM(D9:I9)*[1]Overview!$C$1*C9</f>
+        <f t="shared" si="6"/>
         <v>900</v>
       </c>
       <c r="P9" s="9">
-        <f>IF(D9=1,[1]Overview!$C$1*$C9,0)</f>
+        <f t="shared" si="7"/>
         <v>150</v>
       </c>
       <c r="Q9" s="9">
-        <f>IF(E9=1,[1]Overview!$C$1*$C9,0)</f>
+        <f t="shared" si="8"/>
         <v>150</v>
       </c>
       <c r="R9" s="9">
-        <f>IF(F9=1,[1]Overview!$C$1*$C9,0)</f>
+        <f t="shared" si="9"/>
         <v>150</v>
       </c>
       <c r="S9" s="9">
-        <f>IF(G9=1,[1]Overview!$C$1*$C9,0)</f>
+        <f t="shared" si="10"/>
         <v>150</v>
       </c>
       <c r="T9" s="9">
-        <f>IF(H9=1,[1]Overview!$C$1*$C9,0)</f>
+        <f t="shared" si="11"/>
         <v>150</v>
       </c>
       <c r="U9" s="9">
-        <f>IF(I9=1,[1]Overview!$C$1*$C9,0)</f>
+        <f t="shared" si="12"/>
         <v>150</v>
       </c>
       <c r="V9" s="9"/>
       <c r="X9" s="2">
-        <f>IF(D9=1,$C9,0)</f>
+        <f t="shared" si="13"/>
         <v>1.5</v>
       </c>
       <c r="Y9" s="2">
-        <f>IF(E9=1,$C9,0)</f>
+        <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
       <c r="Z9" s="2">
-        <f>IF(F9=1,$C9,0)</f>
+        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
       <c r="AA9" s="2">
-        <f>IF(G9=1,$C9,0)</f>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="AB9" s="2">
-        <f>IF(H9=1,$C9,0)</f>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="AC9" s="2">
-        <f>IF(I9=1,$C9,0)</f>
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
     </row>
@@ -1590,56 +1533,56 @@
         <v>1</v>
       </c>
       <c r="J10" s="15">
-        <f>SUM(D10:I10)*[1]Overview!$C$1*C10</f>
+        <f t="shared" si="6"/>
         <v>1200</v>
       </c>
       <c r="P10" s="9">
-        <f>IF(D10=1,[1]Overview!$C$1*$C10,0)</f>
+        <f t="shared" si="7"/>
         <v>200</v>
       </c>
       <c r="Q10" s="9">
-        <f>IF(E10=1,[1]Overview!$C$1*$C10,0)</f>
+        <f t="shared" si="8"/>
         <v>200</v>
       </c>
       <c r="R10" s="9">
-        <f>IF(F10=1,[1]Overview!$C$1*$C10,0)</f>
+        <f t="shared" si="9"/>
         <v>200</v>
       </c>
       <c r="S10" s="9">
-        <f>IF(G10=1,[1]Overview!$C$1*$C10,0)</f>
+        <f t="shared" si="10"/>
         <v>200</v>
       </c>
       <c r="T10" s="9">
-        <f>IF(H10=1,[1]Overview!$C$1*$C10,0)</f>
+        <f t="shared" si="11"/>
         <v>200</v>
       </c>
       <c r="U10" s="9">
-        <f>IF(I10=1,[1]Overview!$C$1*$C10,0)</f>
+        <f t="shared" si="12"/>
         <v>200</v>
       </c>
       <c r="V10" s="9"/>
       <c r="X10" s="2">
-        <f>IF(D10=1,$C10,0)</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="Y10" s="2">
-        <f>IF(E10=1,$C10,0)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="Z10" s="2">
-        <f>IF(F10=1,$C10,0)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AA10" s="2">
-        <f>IF(G10=1,$C10,0)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AB10" s="2">
-        <f>IF(H10=1,$C10,0)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AC10" s="2">
-        <f>IF(I10=1,$C10,0)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -1672,56 +1615,56 @@
         <v>1</v>
       </c>
       <c r="J11" s="15">
-        <f>SUM(D11:I11)*[1]Overview!$C$1*C11</f>
+        <f t="shared" si="6"/>
         <v>300</v>
       </c>
       <c r="P11" s="9">
-        <f>IF(D11=1,[1]Overview!$C$1*$C11,0)</f>
+        <f t="shared" si="7"/>
         <v>50</v>
       </c>
       <c r="Q11" s="9">
-        <f>IF(E11=1,[1]Overview!$C$1*$C11,0)</f>
+        <f t="shared" si="8"/>
         <v>50</v>
       </c>
       <c r="R11" s="9">
-        <f>IF(F11=1,[1]Overview!$C$1*$C11,0)</f>
+        <f t="shared" si="9"/>
         <v>50</v>
       </c>
       <c r="S11" s="9">
-        <f>IF(G11=1,[1]Overview!$C$1*$C11,0)</f>
+        <f t="shared" si="10"/>
         <v>50</v>
       </c>
       <c r="T11" s="9">
-        <f>IF(H11=1,[1]Overview!$C$1*$C11,0)</f>
+        <f t="shared" si="11"/>
         <v>50</v>
       </c>
       <c r="U11" s="9">
-        <f>IF(I11=1,[1]Overview!$C$1*$C11,0)</f>
+        <f t="shared" si="12"/>
         <v>50</v>
       </c>
       <c r="V11" s="9"/>
       <c r="X11" s="2">
-        <f>IF(D11=1,$C11,0)</f>
+        <f t="shared" si="13"/>
         <v>0.5</v>
       </c>
       <c r="Y11" s="2">
-        <f>IF(E11=1,$C11,0)</f>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="Z11" s="2">
-        <f>IF(F11=1,$C11,0)</f>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="AA11" s="2">
-        <f>IF(G11=1,$C11,0)</f>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="AB11" s="2">
-        <f>IF(H11=1,$C11,0)</f>
+        <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
       <c r="AC11" s="2">
-        <f>IF(I11=1,$C11,0)</f>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
     </row>
@@ -1754,56 +1697,56 @@
         <v>1</v>
       </c>
       <c r="J12" s="15">
-        <f>SUM(D12:I12)*[1]Overview!$C$1*C12</f>
+        <f t="shared" si="6"/>
         <v>600</v>
       </c>
       <c r="P12" s="9">
-        <f>IF(D12=1,[1]Overview!$C$1*$C12,0)</f>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="Q12" s="9">
-        <f>IF(E12=1,[1]Overview!$C$1*$C12,0)</f>
+        <f t="shared" si="8"/>
         <v>100</v>
       </c>
       <c r="R12" s="9">
-        <f>IF(F12=1,[1]Overview!$C$1*$C12,0)</f>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
       <c r="S12" s="9">
-        <f>IF(G12=1,[1]Overview!$C$1*$C12,0)</f>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="T12" s="9">
-        <f>IF(H12=1,[1]Overview!$C$1*$C12,0)</f>
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
       <c r="U12" s="9">
-        <f>IF(I12=1,[1]Overview!$C$1*$C12,0)</f>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
       <c r="V12" s="9"/>
       <c r="X12" s="2">
-        <f>IF(D12=1,$C12,0)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="Y12" s="2">
-        <f>IF(E12=1,$C12,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="Z12" s="2">
-        <f>IF(F12=1,$C12,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AA12" s="2">
-        <f>IF(G12=1,$C12,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AB12" s="2">
-        <f>IF(H12=1,$C12,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AC12" s="2">
-        <f>IF(I12=1,$C12,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -1836,56 +1779,56 @@
         <v>1</v>
       </c>
       <c r="J13" s="15">
-        <f>SUM(D13:I13)*[1]Overview!$C$1*C13</f>
+        <f t="shared" si="6"/>
         <v>300</v>
       </c>
       <c r="P13" s="9">
-        <f>IF(D13=1,[1]Overview!$C$1*$C13,0)</f>
+        <f t="shared" si="7"/>
         <v>50</v>
       </c>
       <c r="Q13" s="9">
-        <f>IF(E13=1,[1]Overview!$C$1*$C13,0)</f>
+        <f t="shared" si="8"/>
         <v>50</v>
       </c>
       <c r="R13" s="9">
-        <f>IF(F13=1,[1]Overview!$C$1*$C13,0)</f>
+        <f t="shared" si="9"/>
         <v>50</v>
       </c>
       <c r="S13" s="9">
-        <f>IF(G13=1,[1]Overview!$C$1*$C13,0)</f>
+        <f t="shared" si="10"/>
         <v>50</v>
       </c>
       <c r="T13" s="9">
-        <f>IF(H13=1,[1]Overview!$C$1*$C13,0)</f>
+        <f t="shared" si="11"/>
         <v>50</v>
       </c>
       <c r="U13" s="9">
-        <f>IF(I13=1,[1]Overview!$C$1*$C13,0)</f>
+        <f t="shared" si="12"/>
         <v>50</v>
       </c>
       <c r="V13" s="9"/>
       <c r="X13" s="2">
-        <f>IF(D13=1,$C13,0)</f>
+        <f t="shared" si="13"/>
         <v>0.5</v>
       </c>
       <c r="Y13" s="2">
-        <f>IF(E13=1,$C13,0)</f>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="Z13" s="2">
-        <f>IF(F13=1,$C13,0)</f>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="AA13" s="2">
-        <f>IF(G13=1,$C13,0)</f>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="AB13" s="2">
-        <f>IF(H13=1,$C13,0)</f>
+        <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
       <c r="AC13" s="2">
-        <f>IF(I13=1,$C13,0)</f>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
     </row>
@@ -1916,56 +1859,56 @@
         <v>1</v>
       </c>
       <c r="J14" s="15">
-        <f>SUM(D14:I14)*[1]Overview!$C$1*C14</f>
+        <f t="shared" si="6"/>
         <v>1000</v>
       </c>
       <c r="P14" s="9">
-        <f>IF(D14=1,[1]Overview!$C$1*$C14,0)</f>
+        <f t="shared" si="7"/>
         <v>200</v>
       </c>
       <c r="Q14" s="9">
-        <f>IF(E14=1,[1]Overview!$C$1*$C14,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R14" s="9">
-        <f>IF(F14=1,[1]Overview!$C$1*$C14,0)</f>
+        <f t="shared" si="9"/>
         <v>200</v>
       </c>
       <c r="S14" s="9">
-        <f>IF(G14=1,[1]Overview!$C$1*$C14,0)</f>
+        <f t="shared" si="10"/>
         <v>200</v>
       </c>
       <c r="T14" s="9">
-        <f>IF(H14=1,[1]Overview!$C$1*$C14,0)</f>
+        <f t="shared" si="11"/>
         <v>200</v>
       </c>
       <c r="U14" s="9">
-        <f>IF(I14=1,[1]Overview!$C$1*$C14,0)</f>
+        <f t="shared" si="12"/>
         <v>200</v>
       </c>
       <c r="V14" s="9"/>
       <c r="X14" s="2">
-        <f>IF(D14=1,$C14,0)</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="Y14" s="2">
-        <f>IF(E14=1,$C14,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Z14" s="2">
-        <f>IF(F14=1,$C14,0)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AA14" s="2">
-        <f>IF(G14=1,$C14,0)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AB14" s="2">
-        <f>IF(H14=1,$C14,0)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AC14" s="2">
-        <f>IF(I14=1,$C14,0)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -1998,185 +1941,221 @@
         <v>1</v>
       </c>
       <c r="J15" s="15">
-        <f>SUM(D15:I15)*[1]Overview!$C$1*C15</f>
+        <f t="shared" si="6"/>
         <v>300</v>
       </c>
       <c r="P15" s="9">
-        <f>IF(D15=1,[1]Overview!$C$1*$C15,0)</f>
+        <f t="shared" si="7"/>
         <v>50</v>
       </c>
       <c r="Q15" s="9">
-        <f>IF(E15=1,[1]Overview!$C$1*$C15,0)</f>
+        <f t="shared" si="8"/>
         <v>50</v>
       </c>
       <c r="R15" s="9">
-        <f>IF(F15=1,[1]Overview!$C$1*$C15,0)</f>
+        <f t="shared" si="9"/>
         <v>50</v>
       </c>
       <c r="S15" s="9">
-        <f>IF(G15=1,[1]Overview!$C$1*$C15,0)</f>
+        <f t="shared" si="10"/>
         <v>50</v>
       </c>
       <c r="T15" s="9">
-        <f>IF(H15=1,[1]Overview!$C$1*$C15,0)</f>
+        <f t="shared" si="11"/>
         <v>50</v>
       </c>
       <c r="U15" s="9">
-        <f>IF(I15=1,[1]Overview!$C$1*$C15,0)</f>
+        <f t="shared" si="12"/>
         <v>50</v>
       </c>
       <c r="V15" s="9"/>
       <c r="X15" s="2">
-        <f>IF(D15=1,$C15,0)</f>
+        <f t="shared" si="13"/>
         <v>0.5</v>
       </c>
       <c r="Y15" s="2">
-        <f>IF(E15=1,$C15,0)</f>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="Z15" s="2">
-        <f>IF(F15=1,$C15,0)</f>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="AA15" s="2">
-        <f>IF(G15=1,$C15,0)</f>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="AB15" s="2">
-        <f>IF(H15=1,$C15,0)</f>
+        <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
       <c r="AC15" s="2">
-        <f>IF(I15=1,$C15,0)</f>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A16" s="19"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
+    <row r="16" spans="1:29" ht="27" x14ac:dyDescent="0.3">
+      <c r="A16" s="19">
+        <v>43195</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="20">
+        <v>1</v>
+      </c>
+      <c r="D16" s="16">
+        <v>1</v>
+      </c>
+      <c r="E16" s="16">
+        <v>1</v>
+      </c>
+      <c r="F16" s="16">
+        <v>1</v>
+      </c>
+      <c r="G16" s="16">
+        <v>1</v>
+      </c>
+      <c r="H16" s="16">
+        <v>1</v>
+      </c>
+      <c r="I16" s="16">
+        <v>1</v>
+      </c>
       <c r="J16" s="15">
-        <f>SUM(D16:I16)*[1]Overview!$C$1*C16</f>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>600</v>
       </c>
       <c r="P16" s="9">
-        <f>IF(D16=1,[1]Overview!$C$1*$C16,0)</f>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>100</v>
       </c>
       <c r="Q16" s="9">
-        <f>IF(E16=1,[1]Overview!$C$1*$C16,0)</f>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>100</v>
       </c>
       <c r="R16" s="9">
-        <f>IF(F16=1,[1]Overview!$C$1*$C16,0)</f>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>100</v>
       </c>
       <c r="S16" s="9">
-        <f>IF(G16=1,[1]Overview!$C$1*$C16,0)</f>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>100</v>
       </c>
       <c r="T16" s="9">
-        <f>IF(H16=1,[1]Overview!$C$1*$C16,0)</f>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>100</v>
       </c>
       <c r="U16" s="9">
-        <f>IF(I16=1,[1]Overview!$C$1*$C16,0)</f>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>100</v>
       </c>
       <c r="V16" s="9"/>
       <c r="X16" s="2">
-        <f>IF(D16=1,$C16,0)</f>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="Y16" s="2">
-        <f>IF(E16=1,$C16,0)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="Z16" s="2">
-        <f>IF(F16=1,$C16,0)</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="AA16" s="2">
-        <f>IF(G16=1,$C16,0)</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="AB16" s="2">
-        <f>IF(H16=1,$C16,0)</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="AC16" s="2">
-        <f>IF(I16=1,$C16,0)</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A17" s="19"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
+    <row r="17" spans="1:30" ht="27" x14ac:dyDescent="0.3">
+      <c r="A17" s="19">
+        <v>43200</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="20">
+        <v>0.75</v>
+      </c>
+      <c r="D17" s="16">
+        <v>1</v>
+      </c>
+      <c r="E17" s="16">
+        <v>1</v>
+      </c>
+      <c r="F17" s="16">
+        <v>1</v>
+      </c>
+      <c r="G17" s="16">
+        <v>1</v>
+      </c>
+      <c r="H17" s="16">
+        <v>1</v>
+      </c>
+      <c r="I17" s="16">
+        <v>1</v>
+      </c>
       <c r="J17" s="15">
-        <f>SUM(D17:I17)*[1]Overview!$C$1*C17</f>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>450</v>
       </c>
       <c r="P17" s="9">
-        <f>IF(D17=1,[1]Overview!$C$1*$C17,0)</f>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>75</v>
       </c>
       <c r="Q17" s="9">
-        <f>IF(E17=1,[1]Overview!$C$1*$C17,0)</f>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>75</v>
       </c>
       <c r="R17" s="9">
-        <f>IF(F17=1,[1]Overview!$C$1*$C17,0)</f>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>75</v>
       </c>
       <c r="S17" s="9">
-        <f>IF(G17=1,[1]Overview!$C$1*$C17,0)</f>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>75</v>
       </c>
       <c r="T17" s="9">
-        <f>IF(H17=1,[1]Overview!$C$1*$C17,0)</f>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>75</v>
       </c>
       <c r="U17" s="9">
-        <f>IF(I17=1,[1]Overview!$C$1*$C17,0)</f>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>75</v>
       </c>
       <c r="V17" s="9"/>
       <c r="X17" s="2">
-        <f>IF(D17=1,$C17,0)</f>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>0.75</v>
       </c>
       <c r="Y17" s="2">
-        <f>IF(E17=1,$C17,0)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.75</v>
       </c>
       <c r="Z17" s="2">
-        <f>IF(F17=1,$C17,0)</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.75</v>
       </c>
       <c r="AA17" s="2">
-        <f>IF(G17=1,$C17,0)</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>0.75</v>
       </c>
       <c r="AB17" s="2">
-        <f>IF(H17=1,$C17,0)</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>0.75</v>
       </c>
       <c r="AC17" s="2">
-        <f>IF(I17=1,$C17,0)</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>0.75</v>
       </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.3">
@@ -2190,56 +2169,56 @@
       <c r="H18" s="16"/>
       <c r="I18" s="16"/>
       <c r="J18" s="15">
-        <f>SUM(D18:I18)*[1]Overview!$C$1*C18</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P18" s="9">
-        <f>IF(D18=1,[1]Overview!$C$1*$C18,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q18" s="9">
-        <f>IF(E18=1,[1]Overview!$C$1*$C18,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R18" s="9">
-        <f>IF(F18=1,[1]Overview!$C$1*$C18,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S18" s="9">
-        <f>IF(G18=1,[1]Overview!$C$1*$C18,0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T18" s="9">
-        <f>IF(H18=1,[1]Overview!$C$1*$C18,0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U18" s="9">
-        <f>IF(I18=1,[1]Overview!$C$1*$C18,0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V18" s="9"/>
       <c r="X18" s="2">
-        <f>IF(D18=1,$C18,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Y18" s="2">
-        <f>IF(E18=1,$C18,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Z18" s="2">
-        <f>IF(F18=1,$C18,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA18" s="2">
-        <f>IF(G18=1,$C18,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AB18" s="2">
-        <f>IF(H18=1,$C18,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AC18" s="2">
-        <f>IF(I18=1,$C18,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2254,56 +2233,56 @@
       <c r="H19" s="16"/>
       <c r="I19" s="16"/>
       <c r="J19" s="15">
-        <f>SUM(D19:I19)*[1]Overview!$C$1*C19</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P19" s="9">
-        <f>IF(D19=1,[1]Overview!$C$1*$C19,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q19" s="9">
-        <f>IF(E19=1,[1]Overview!$C$1*$C19,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R19" s="9">
-        <f>IF(F19=1,[1]Overview!$C$1*$C19,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S19" s="9">
-        <f>IF(G19=1,[1]Overview!$C$1*$C19,0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T19" s="9">
-        <f>IF(H19=1,[1]Overview!$C$1*$C19,0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U19" s="9">
-        <f>IF(I19=1,[1]Overview!$C$1*$C19,0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V19" s="9"/>
       <c r="X19" s="2">
-        <f>IF(D19=1,$C19,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Y19" s="2">
-        <f>IF(E19=1,$C19,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Z19" s="2">
-        <f>IF(F19=1,$C19,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA19" s="2">
-        <f>IF(G19=1,$C19,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AB19" s="2">
-        <f>IF(H19=1,$C19,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AC19" s="2">
-        <f>IF(I19=1,$C19,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2318,56 +2297,56 @@
       <c r="H20" s="16"/>
       <c r="I20" s="16"/>
       <c r="J20" s="15">
-        <f>SUM(D20:I20)*[1]Overview!$C$1*C20</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P20" s="9">
-        <f>IF(D20=1,[1]Overview!$C$1*$C20,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q20" s="9">
-        <f>IF(E20=1,[1]Overview!$C$1*$C20,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R20" s="9">
-        <f>IF(F20=1,[1]Overview!$C$1*$C20,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S20" s="9">
-        <f>IF(G20=1,[1]Overview!$C$1*$C20,0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T20" s="9">
-        <f>IF(H20=1,[1]Overview!$C$1*$C20,0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U20" s="9">
-        <f>IF(I20=1,[1]Overview!$C$1*$C20,0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V20" s="9"/>
       <c r="X20" s="2">
-        <f>IF(D20=1,$C20,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Y20" s="2">
-        <f>IF(E20=1,$C20,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Z20" s="2">
-        <f>IF(F20=1,$C20,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA20" s="2">
-        <f>IF(G20=1,$C20,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AB20" s="2">
-        <f>IF(H20=1,$C20,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AC20" s="2">
-        <f>IF(I20=1,$C20,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2382,56 +2361,56 @@
       <c r="H21" s="16"/>
       <c r="I21" s="16"/>
       <c r="J21" s="15">
-        <f>SUM(D21:I21)*[1]Overview!$C$1*C21</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P21" s="9">
-        <f>IF(D21=1,[1]Overview!$C$1*$C21,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q21" s="9">
-        <f>IF(E21=1,[1]Overview!$C$1*$C21,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R21" s="9">
-        <f>IF(F21=1,[1]Overview!$C$1*$C21,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S21" s="9">
-        <f>IF(G21=1,[1]Overview!$C$1*$C21,0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T21" s="9">
-        <f>IF(H21=1,[1]Overview!$C$1*$C21,0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U21" s="9">
-        <f>IF(I21=1,[1]Overview!$C$1*$C21,0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V21" s="9"/>
       <c r="X21" s="2">
-        <f>IF(D21=1,$C21,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Y21" s="2">
-        <f>IF(E21=1,$C21,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Z21" s="2">
-        <f>IF(F21=1,$C21,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA21" s="2">
-        <f>IF(G21=1,$C21,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AB21" s="2">
-        <f>IF(H21=1,$C21,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AC21" s="2">
-        <f>IF(I21=1,$C21,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2446,56 +2425,56 @@
       <c r="H22" s="16"/>
       <c r="I22" s="16"/>
       <c r="J22" s="15">
-        <f>SUM(D22:I22)*[1]Overview!$C$1*C22</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P22" s="9">
-        <f>IF(D22=1,[1]Overview!$C$1*$C22,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q22" s="9">
-        <f>IF(E22=1,[1]Overview!$C$1*$C22,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R22" s="9">
-        <f>IF(F22=1,[1]Overview!$C$1*$C22,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S22" s="9">
-        <f>IF(G22=1,[1]Overview!$C$1*$C22,0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T22" s="9">
-        <f>IF(H22=1,[1]Overview!$C$1*$C22,0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U22" s="9">
-        <f>IF(I22=1,[1]Overview!$C$1*$C22,0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V22" s="9"/>
       <c r="X22" s="2">
-        <f>IF(D22=1,$C22,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Y22" s="2">
-        <f>IF(E22=1,$C22,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Z22" s="2">
-        <f>IF(F22=1,$C22,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA22" s="2">
-        <f>IF(G22=1,$C22,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AB22" s="2">
-        <f>IF(H22=1,$C22,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AC22" s="2">
-        <f>IF(I22=1,$C22,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2510,56 +2489,56 @@
       <c r="H23" s="16"/>
       <c r="I23" s="16"/>
       <c r="J23" s="15">
-        <f>SUM(D23:I23)*[1]Overview!$C$1*C23</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P23" s="9">
-        <f>IF(D23=1,[1]Overview!$C$1*$C23,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q23" s="9">
-        <f>IF(E23=1,[1]Overview!$C$1*$C23,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R23" s="9">
-        <f>IF(F23=1,[1]Overview!$C$1*$C23,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S23" s="9">
-        <f>IF(G23=1,[1]Overview!$C$1*$C23,0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T23" s="9">
-        <f>IF(H23=1,[1]Overview!$C$1*$C23,0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U23" s="9">
-        <f>IF(I23=1,[1]Overview!$C$1*$C23,0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V23" s="9"/>
       <c r="X23" s="2">
-        <f>IF(D23=1,$C23,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Y23" s="2">
-        <f>IF(E23=1,$C23,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Z23" s="2">
-        <f>IF(F23=1,$C23,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA23" s="2">
-        <f>IF(G23=1,$C23,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AB23" s="2">
-        <f>IF(H23=1,$C23,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AC23" s="2">
-        <f>IF(I23=1,$C23,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2574,56 +2553,56 @@
       <c r="H24" s="16"/>
       <c r="I24" s="16"/>
       <c r="J24" s="15">
-        <f>SUM(D24:I24)*[1]Overview!$C$1*C24</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P24" s="9">
-        <f>IF(D24=1,[1]Overview!$C$1*$C24,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q24" s="9">
-        <f>IF(E24=1,[1]Overview!$C$1*$C24,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R24" s="9">
-        <f>IF(F24=1,[1]Overview!$C$1*$C24,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S24" s="9">
-        <f>IF(G24=1,[1]Overview!$C$1*$C24,0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T24" s="9">
-        <f>IF(H24=1,[1]Overview!$C$1*$C24,0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U24" s="9">
-        <f>IF(I24=1,[1]Overview!$C$1*$C24,0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V24" s="9"/>
       <c r="X24" s="2">
-        <f>IF(D24=1,$C24,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Y24" s="2">
-        <f>IF(E24=1,$C24,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Z24" s="2">
-        <f>IF(F24=1,$C24,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA24" s="2">
-        <f>IF(G24=1,$C24,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AB24" s="2">
-        <f>IF(H24=1,$C24,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AC24" s="2">
-        <f>IF(I24=1,$C24,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2634,94 +2613,94 @@
       </c>
       <c r="C25" s="12">
         <f>SUM(C3:C24)</f>
-        <v>12.25</v>
+        <v>14</v>
       </c>
       <c r="D25" s="11">
-        <f>X$25</f>
+        <f t="shared" ref="D25:I25" si="14">X$25</f>
+        <v>13</v>
+      </c>
+      <c r="E25" s="11">
+        <f t="shared" si="14"/>
         <v>11.25</v>
       </c>
-      <c r="E25" s="11">
-        <f>Y$25</f>
-        <v>9.5</v>
-      </c>
       <c r="F25" s="11">
-        <f>Z$25</f>
-        <v>12.25</v>
+        <f t="shared" si="14"/>
+        <v>14</v>
       </c>
       <c r="G25" s="11">
-        <f>AA$25</f>
-        <v>12.25</v>
+        <f t="shared" si="14"/>
+        <v>14</v>
       </c>
       <c r="H25" s="11">
-        <f>AB$25</f>
-        <v>12.25</v>
+        <f t="shared" si="14"/>
+        <v>14</v>
       </c>
       <c r="I25" s="11">
-        <f>AC$25</f>
-        <v>12.25</v>
+        <f t="shared" si="14"/>
+        <v>14</v>
       </c>
       <c r="J25" s="10">
         <f>SUM(J3:J24)</f>
-        <v>6975</v>
+        <v>8025</v>
       </c>
       <c r="O25" s="2" t="s">
         <v>8</v>
       </c>
       <c r="P25" s="9">
-        <f>SUM(P3:P24)</f>
+        <f t="shared" ref="P25:U25" si="15">SUM(P3:P24)</f>
+        <v>1300</v>
+      </c>
+      <c r="Q25" s="9">
+        <f t="shared" si="15"/>
         <v>1125</v>
       </c>
-      <c r="Q25" s="9">
-        <f>SUM(Q3:Q24)</f>
-        <v>950</v>
-      </c>
       <c r="R25" s="9">
-        <f>SUM(R3:R24)</f>
-        <v>1225</v>
+        <f t="shared" si="15"/>
+        <v>1400</v>
       </c>
       <c r="S25" s="9">
-        <f>SUM(S3:S24)</f>
-        <v>1225</v>
+        <f t="shared" si="15"/>
+        <v>1400</v>
       </c>
       <c r="T25" s="9">
-        <f>SUM(T3:T24)</f>
-        <v>1225</v>
+        <f t="shared" si="15"/>
+        <v>1400</v>
       </c>
       <c r="U25" s="9">
-        <f>SUM(U3:U24)</f>
-        <v>1225</v>
+        <f t="shared" si="15"/>
+        <v>1400</v>
       </c>
       <c r="V25" s="9">
         <f>SUM(P25:U25)</f>
-        <v>6975</v>
+        <v>8025</v>
       </c>
       <c r="X25" s="2">
-        <f>SUM(X3:X24)</f>
+        <f t="shared" ref="X25:AC25" si="16">SUM(X3:X24)</f>
+        <v>13</v>
+      </c>
+      <c r="Y25" s="2">
+        <f t="shared" si="16"/>
         <v>11.25</v>
       </c>
-      <c r="Y25" s="2">
-        <f>SUM(Y3:Y24)</f>
-        <v>9.5</v>
-      </c>
       <c r="Z25" s="2">
-        <f>SUM(Z3:Z24)</f>
-        <v>12.25</v>
+        <f t="shared" si="16"/>
+        <v>14</v>
       </c>
       <c r="AA25" s="2">
-        <f>SUM(AA3:AA24)</f>
-        <v>12.25</v>
+        <f t="shared" si="16"/>
+        <v>14</v>
       </c>
       <c r="AB25" s="2">
-        <f>SUM(AB3:AB24)</f>
-        <v>12.25</v>
+        <f t="shared" si="16"/>
+        <v>14</v>
       </c>
       <c r="AC25" s="2">
-        <f>SUM(AC3:AC24)</f>
-        <v>12.25</v>
+        <f t="shared" si="16"/>
+        <v>14</v>
       </c>
       <c r="AD25" s="2">
         <f>SUM(X25:AC25)</f>
-        <v>69.75</v>
+        <v>80.25</v>
       </c>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.3">

--- a/team_folder/newFolder/Project Management/Logging/Meeting Report.xlsx
+++ b/team_folder/newFolder/Project Management/Logging/Meeting Report.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
   <si>
     <t>Cost</t>
   </si>
@@ -126,14 +126,33 @@
   </si>
   <si>
     <t xml:space="preserve">Reviewed what was completed, what the next tasks needed. Demo'd changes </t>
+  </si>
+  <si>
+    <t>Pre PDR Costs</t>
+  </si>
+  <si>
+    <t>Post PDR Costs</t>
+  </si>
+  <si>
+    <t>Pre PDR Hours</t>
+  </si>
+  <si>
+    <t>Post PDR Hours</t>
+  </si>
+  <si>
+    <t>Total Hours</t>
+  </si>
+  <si>
+    <t>Total Costs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_(\$* #,##0.00_);_(\$* \(#,##0.00\);_(\$* \-??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -427,7 +446,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
@@ -493,6 +512,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="2" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Currency 2" xfId="3"/>
@@ -822,8 +843,9 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:AMK26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AL15" sqref="AL15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -837,18 +859,18 @@
     <col min="12" max="12" width="9.33203125" style="2" customWidth="1"/>
     <col min="13" max="14" width="8.6640625" style="2" customWidth="1"/>
     <col min="15" max="15" width="15" style="2" customWidth="1"/>
-    <col min="16" max="16" width="10.44140625" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="17" width="8.88671875" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="18" max="21" width="10.44140625" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="10.44140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="16" max="21" width="11.109375" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="11.109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="23" max="23" width="19.6640625" style="2" customWidth="1"/>
-    <col min="24" max="29" width="8.6640625" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="30" max="30" width="8.6640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="31" max="1025" width="8.6640625" style="2" customWidth="1"/>
+    <col min="24" max="29" width="8.6640625" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="30" max="31" width="8.6640625" style="2" customWidth="1"/>
+    <col min="32" max="32" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="38" width="11.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="39" max="1025" width="8.6640625" style="2" customWidth="1"/>
     <col min="1026" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="38"/>
       <c r="B1" s="37" t="s">
         <v>23</v>
@@ -870,7 +892,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>20</v>
       </c>
@@ -940,8 +962,26 @@
       <c r="AC2" s="22" t="s">
         <v>18</v>
       </c>
+      <c r="AG2" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH2" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI2" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ2" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK2" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL2" s="27" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A3" s="26">
         <v>43132</v>
       </c>
@@ -1021,8 +1061,35 @@
         <f t="shared" ref="AC3:AC24" si="5">IF(I3=1,$C3,0)</f>
         <v>0.5</v>
       </c>
+      <c r="AF3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG3" s="39">
+        <f>SUM(P3:P14)</f>
+        <v>1075</v>
+      </c>
+      <c r="AH3" s="39">
+        <f t="shared" ref="AH3:AL3" si="6">SUM(Q3:Q14)</f>
+        <v>900</v>
+      </c>
+      <c r="AI3" s="39">
+        <f t="shared" si="6"/>
+        <v>1175</v>
+      </c>
+      <c r="AJ3" s="39">
+        <f t="shared" si="6"/>
+        <v>1175</v>
+      </c>
+      <c r="AK3" s="39">
+        <f t="shared" si="6"/>
+        <v>1175</v>
+      </c>
+      <c r="AL3" s="39">
+        <f t="shared" si="6"/>
+        <v>1175</v>
+      </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4" s="19">
         <v>43137</v>
       </c>
@@ -1049,36 +1116,36 @@
         <v>1</v>
       </c>
       <c r="J4" s="15">
-        <f t="shared" ref="J4:J24" si="6">SUM(D4:I4)*100*C4</f>
+        <f t="shared" ref="J4:J24" si="7">SUM(D4:I4)*100*C4</f>
         <v>300</v>
       </c>
       <c r="P4" s="9">
-        <f t="shared" ref="P4:P24" si="7">IF(D4=1,100*$C4,0)</f>
+        <f t="shared" ref="P4:P24" si="8">IF(D4=1,100*$C4,0)</f>
         <v>50</v>
       </c>
       <c r="Q4" s="9">
-        <f t="shared" ref="Q4:Q24" si="8">IF(E4=1,100*$C4,0)</f>
+        <f t="shared" ref="Q4:Q24" si="9">IF(E4=1,100*$C4,0)</f>
         <v>50</v>
       </c>
       <c r="R4" s="9">
-        <f t="shared" ref="R4:R24" si="9">IF(F4=1,100*$C4,0)</f>
+        <f t="shared" ref="R4:R24" si="10">IF(F4=1,100*$C4,0)</f>
         <v>50</v>
       </c>
       <c r="S4" s="9">
-        <f t="shared" ref="S4:S24" si="10">IF(G4=1,100*$C4,0)</f>
+        <f t="shared" ref="S4:S24" si="11">IF(G4=1,100*$C4,0)</f>
         <v>50</v>
       </c>
       <c r="T4" s="9">
-        <f t="shared" ref="T4:T24" si="11">IF(H4=1,100*$C4,0)</f>
+        <f t="shared" ref="T4:T24" si="12">IF(H4=1,100*$C4,0)</f>
         <v>50</v>
       </c>
       <c r="U4" s="9">
-        <f t="shared" ref="U4:U24" si="12">IF(I4=1,100*$C4,0)</f>
+        <f t="shared" ref="U4:U24" si="13">IF(I4=1,100*$C4,0)</f>
         <v>50</v>
       </c>
       <c r="V4" s="9"/>
       <c r="X4" s="2">
-        <f t="shared" ref="X4:X24" si="13">IF(D4=1,$C4,0)</f>
+        <f t="shared" ref="X4:X24" si="14">IF(D4=1,$C4,0)</f>
         <v>0.5</v>
       </c>
       <c r="Y4" s="2">
@@ -1101,8 +1168,35 @@
         <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
+      <c r="AF4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG4" s="40">
+        <f>P25-AG3</f>
+        <v>225</v>
+      </c>
+      <c r="AH4" s="40">
+        <f t="shared" ref="AH4:AL4" si="15">Q25-AH3</f>
+        <v>225</v>
+      </c>
+      <c r="AI4" s="40">
+        <f t="shared" si="15"/>
+        <v>225</v>
+      </c>
+      <c r="AJ4" s="40">
+        <f t="shared" si="15"/>
+        <v>225</v>
+      </c>
+      <c r="AK4" s="40">
+        <f t="shared" si="15"/>
+        <v>225</v>
+      </c>
+      <c r="AL4" s="40">
+        <f t="shared" si="15"/>
+        <v>225</v>
+      </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5" s="19">
         <v>43139</v>
       </c>
@@ -1129,36 +1223,36 @@
         <v>1</v>
       </c>
       <c r="J5" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>300</v>
       </c>
       <c r="P5" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>50</v>
       </c>
       <c r="Q5" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>50</v>
       </c>
       <c r="R5" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>50</v>
       </c>
       <c r="S5" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>50</v>
       </c>
       <c r="T5" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>50</v>
       </c>
       <c r="U5" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>50</v>
       </c>
       <c r="V5" s="9"/>
       <c r="X5" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.5</v>
       </c>
       <c r="Y5" s="2">
@@ -1182,7 +1276,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A6" s="19">
         <v>43144</v>
       </c>
@@ -1207,36 +1301,36 @@
         <v>1</v>
       </c>
       <c r="J6" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>375</v>
       </c>
       <c r="P6" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>75</v>
       </c>
       <c r="Q6" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R6" s="9">
-        <f t="shared" si="9"/>
-        <v>75</v>
-      </c>
-      <c r="S6" s="9">
         <f t="shared" si="10"/>
         <v>75</v>
       </c>
-      <c r="T6" s="9">
+      <c r="S6" s="9">
         <f t="shared" si="11"/>
         <v>75</v>
       </c>
-      <c r="U6" s="9">
+      <c r="T6" s="9">
         <f t="shared" si="12"/>
         <v>75</v>
       </c>
+      <c r="U6" s="9">
+        <f t="shared" si="13"/>
+        <v>75</v>
+      </c>
       <c r="V6" s="9"/>
       <c r="X6" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.75</v>
       </c>
       <c r="Y6" s="2">
@@ -1259,8 +1353,35 @@
         <f t="shared" si="5"/>
         <v>0.75</v>
       </c>
+      <c r="AF6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG6" s="2">
+        <f>SUM(X3:X14)</f>
+        <v>10.75</v>
+      </c>
+      <c r="AH6" s="2">
+        <f t="shared" ref="AH6:AL6" si="16">SUM(Y3:Y14)</f>
+        <v>9</v>
+      </c>
+      <c r="AI6" s="2">
+        <f t="shared" si="16"/>
+        <v>11.75</v>
+      </c>
+      <c r="AJ6" s="2">
+        <f t="shared" si="16"/>
+        <v>11.75</v>
+      </c>
+      <c r="AK6" s="2">
+        <f t="shared" si="16"/>
+        <v>11.75</v>
+      </c>
+      <c r="AL6" s="2">
+        <f t="shared" si="16"/>
+        <v>11.75</v>
+      </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7" s="19">
         <v>43151</v>
       </c>
@@ -1289,36 +1410,36 @@
         <v>1</v>
       </c>
       <c r="J7" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>600</v>
       </c>
       <c r="P7" s="9">
-        <f t="shared" si="7"/>
-        <v>100</v>
-      </c>
-      <c r="Q7" s="9">
         <f t="shared" si="8"/>
         <v>100</v>
       </c>
-      <c r="R7" s="9">
+      <c r="Q7" s="9">
         <f t="shared" si="9"/>
         <v>100</v>
       </c>
-      <c r="S7" s="9">
+      <c r="R7" s="9">
         <f t="shared" si="10"/>
         <v>100</v>
       </c>
-      <c r="T7" s="9">
+      <c r="S7" s="9">
         <f t="shared" si="11"/>
         <v>100</v>
       </c>
-      <c r="U7" s="9">
+      <c r="T7" s="9">
         <f t="shared" si="12"/>
         <v>100</v>
       </c>
+      <c r="U7" s="9">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
       <c r="V7" s="9"/>
       <c r="X7" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="Y7" s="2">
@@ -1341,8 +1462,35 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
+      <c r="AF7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG7" s="2">
+        <f>X25-AG6</f>
+        <v>2.25</v>
+      </c>
+      <c r="AH7" s="2">
+        <f t="shared" ref="AH7:AL7" si="17">Y25-AH6</f>
+        <v>2.25</v>
+      </c>
+      <c r="AI7" s="2">
+        <f t="shared" si="17"/>
+        <v>2.25</v>
+      </c>
+      <c r="AJ7" s="2">
+        <f t="shared" si="17"/>
+        <v>2.25</v>
+      </c>
+      <c r="AK7" s="2">
+        <f t="shared" si="17"/>
+        <v>2.25</v>
+      </c>
+      <c r="AL7" s="2">
+        <f t="shared" si="17"/>
+        <v>2.25</v>
+      </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A8" s="19">
         <v>43153</v>
       </c>
@@ -1369,36 +1517,36 @@
         <v>1</v>
       </c>
       <c r="J8" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>500</v>
       </c>
       <c r="P8" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q8" s="9">
-        <f t="shared" si="8"/>
-        <v>100</v>
-      </c>
-      <c r="R8" s="9">
         <f t="shared" si="9"/>
         <v>100</v>
       </c>
-      <c r="S8" s="9">
+      <c r="R8" s="9">
         <f t="shared" si="10"/>
         <v>100</v>
       </c>
-      <c r="T8" s="9">
+      <c r="S8" s="9">
         <f t="shared" si="11"/>
         <v>100</v>
       </c>
-      <c r="U8" s="9">
+      <c r="T8" s="9">
         <f t="shared" si="12"/>
         <v>100</v>
       </c>
+      <c r="U8" s="9">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
       <c r="V8" s="9"/>
       <c r="X8" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Y8" s="2">
@@ -1422,7 +1570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A9" s="19">
         <v>43158</v>
       </c>
@@ -1451,36 +1599,36 @@
         <v>1</v>
       </c>
       <c r="J9" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>900</v>
       </c>
       <c r="P9" s="9">
-        <f t="shared" si="7"/>
-        <v>150</v>
-      </c>
-      <c r="Q9" s="9">
         <f t="shared" si="8"/>
         <v>150</v>
       </c>
-      <c r="R9" s="9">
+      <c r="Q9" s="9">
         <f t="shared" si="9"/>
         <v>150</v>
       </c>
-      <c r="S9" s="9">
+      <c r="R9" s="9">
         <f t="shared" si="10"/>
         <v>150</v>
       </c>
-      <c r="T9" s="9">
+      <c r="S9" s="9">
         <f t="shared" si="11"/>
         <v>150</v>
       </c>
-      <c r="U9" s="9">
+      <c r="T9" s="9">
         <f t="shared" si="12"/>
         <v>150</v>
       </c>
+      <c r="U9" s="9">
+        <f t="shared" si="13"/>
+        <v>150</v>
+      </c>
       <c r="V9" s="9"/>
       <c r="X9" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.5</v>
       </c>
       <c r="Y9" s="2">
@@ -1503,8 +1651,35 @@
         <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
+      <c r="AF9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG9" s="39">
+        <f>SUM(AG3,AG4)</f>
+        <v>1300</v>
+      </c>
+      <c r="AH9" s="39">
+        <f t="shared" ref="AH9:AL9" si="18">SUM(AH3,AH4)</f>
+        <v>1125</v>
+      </c>
+      <c r="AI9" s="39">
+        <f t="shared" si="18"/>
+        <v>1400</v>
+      </c>
+      <c r="AJ9" s="39">
+        <f t="shared" si="18"/>
+        <v>1400</v>
+      </c>
+      <c r="AK9" s="39">
+        <f t="shared" si="18"/>
+        <v>1400</v>
+      </c>
+      <c r="AL9" s="39">
+        <f t="shared" si="18"/>
+        <v>1400</v>
+      </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A10" s="19">
         <v>43160</v>
       </c>
@@ -1533,36 +1708,36 @@
         <v>1</v>
       </c>
       <c r="J10" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1200</v>
       </c>
       <c r="P10" s="9">
-        <f t="shared" si="7"/>
-        <v>200</v>
-      </c>
-      <c r="Q10" s="9">
         <f t="shared" si="8"/>
         <v>200</v>
       </c>
-      <c r="R10" s="9">
+      <c r="Q10" s="9">
         <f t="shared" si="9"/>
         <v>200</v>
       </c>
-      <c r="S10" s="9">
+      <c r="R10" s="9">
         <f t="shared" si="10"/>
         <v>200</v>
       </c>
-      <c r="T10" s="9">
+      <c r="S10" s="9">
         <f t="shared" si="11"/>
         <v>200</v>
       </c>
-      <c r="U10" s="9">
+      <c r="T10" s="9">
         <f t="shared" si="12"/>
         <v>200</v>
       </c>
+      <c r="U10" s="9">
+        <f t="shared" si="13"/>
+        <v>200</v>
+      </c>
       <c r="V10" s="9"/>
       <c r="X10" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="Y10" s="2">
@@ -1585,8 +1760,35 @@
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
+      <c r="AF10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG10" s="2">
+        <f>SUM(AG6+AG7)</f>
+        <v>13</v>
+      </c>
+      <c r="AH10" s="2">
+        <f t="shared" ref="AH10:AL10" si="19">SUM(AH6+AH7)</f>
+        <v>11.25</v>
+      </c>
+      <c r="AI10" s="2">
+        <f t="shared" si="19"/>
+        <v>14</v>
+      </c>
+      <c r="AJ10" s="2">
+        <f t="shared" si="19"/>
+        <v>14</v>
+      </c>
+      <c r="AK10" s="2">
+        <f t="shared" si="19"/>
+        <v>14</v>
+      </c>
+      <c r="AL10" s="2">
+        <f t="shared" si="19"/>
+        <v>14</v>
+      </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A11" s="19">
         <v>43164</v>
       </c>
@@ -1615,36 +1817,36 @@
         <v>1</v>
       </c>
       <c r="J11" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>300</v>
       </c>
       <c r="P11" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>50</v>
       </c>
       <c r="Q11" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>50</v>
       </c>
       <c r="R11" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>50</v>
       </c>
       <c r="S11" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>50</v>
       </c>
       <c r="T11" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>50</v>
       </c>
       <c r="U11" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>50</v>
       </c>
       <c r="V11" s="9"/>
       <c r="X11" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.5</v>
       </c>
       <c r="Y11" s="2">
@@ -1668,7 +1870,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A12" s="19">
         <v>43165</v>
       </c>
@@ -1697,36 +1899,36 @@
         <v>1</v>
       </c>
       <c r="J12" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>600</v>
       </c>
       <c r="P12" s="9">
-        <f t="shared" si="7"/>
-        <v>100</v>
-      </c>
-      <c r="Q12" s="9">
         <f t="shared" si="8"/>
         <v>100</v>
       </c>
-      <c r="R12" s="9">
+      <c r="Q12" s="9">
         <f t="shared" si="9"/>
         <v>100</v>
       </c>
-      <c r="S12" s="9">
+      <c r="R12" s="9">
         <f t="shared" si="10"/>
         <v>100</v>
       </c>
-      <c r="T12" s="9">
+      <c r="S12" s="9">
         <f t="shared" si="11"/>
         <v>100</v>
       </c>
-      <c r="U12" s="9">
+      <c r="T12" s="9">
         <f t="shared" si="12"/>
         <v>100</v>
       </c>
+      <c r="U12" s="9">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
       <c r="V12" s="9"/>
       <c r="X12" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="Y12" s="2">
@@ -1750,7 +1952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A13" s="19">
         <v>43167</v>
       </c>
@@ -1779,36 +1981,36 @@
         <v>1</v>
       </c>
       <c r="J13" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>300</v>
       </c>
       <c r="P13" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>50</v>
       </c>
       <c r="Q13" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>50</v>
       </c>
       <c r="R13" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>50</v>
       </c>
       <c r="S13" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>50</v>
       </c>
       <c r="T13" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>50</v>
       </c>
       <c r="U13" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>50</v>
       </c>
       <c r="V13" s="9"/>
       <c r="X13" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.5</v>
       </c>
       <c r="Y13" s="2">
@@ -1832,7 +2034,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A14" s="19">
         <v>43179</v>
       </c>
@@ -1859,36 +2061,36 @@
         <v>1</v>
       </c>
       <c r="J14" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1000</v>
       </c>
       <c r="P14" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>200</v>
       </c>
       <c r="Q14" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R14" s="9">
-        <f t="shared" si="9"/>
-        <v>200</v>
-      </c>
-      <c r="S14" s="9">
         <f t="shared" si="10"/>
         <v>200</v>
       </c>
-      <c r="T14" s="9">
+      <c r="S14" s="9">
         <f t="shared" si="11"/>
         <v>200</v>
       </c>
-      <c r="U14" s="9">
+      <c r="T14" s="9">
         <f t="shared" si="12"/>
         <v>200</v>
       </c>
+      <c r="U14" s="9">
+        <f t="shared" si="13"/>
+        <v>200</v>
+      </c>
       <c r="V14" s="9"/>
       <c r="X14" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="Y14" s="2">
@@ -1912,7 +2114,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A15" s="19">
         <v>43186</v>
       </c>
@@ -1941,36 +2143,36 @@
         <v>1</v>
       </c>
       <c r="J15" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>300</v>
       </c>
       <c r="P15" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>50</v>
       </c>
       <c r="Q15" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>50</v>
       </c>
       <c r="R15" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>50</v>
       </c>
       <c r="S15" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>50</v>
       </c>
       <c r="T15" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>50</v>
       </c>
       <c r="U15" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>50</v>
       </c>
       <c r="V15" s="9"/>
       <c r="X15" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.5</v>
       </c>
       <c r="Y15" s="2">
@@ -1994,7 +2196,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:29" ht="27" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:38" ht="27" x14ac:dyDescent="0.3">
       <c r="A16" s="19">
         <v>43195</v>
       </c>
@@ -2023,36 +2225,36 @@
         <v>1</v>
       </c>
       <c r="J16" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>600</v>
       </c>
       <c r="P16" s="9">
-        <f t="shared" si="7"/>
-        <v>100</v>
-      </c>
-      <c r="Q16" s="9">
         <f t="shared" si="8"/>
         <v>100</v>
       </c>
-      <c r="R16" s="9">
+      <c r="Q16" s="9">
         <f t="shared" si="9"/>
         <v>100</v>
       </c>
-      <c r="S16" s="9">
+      <c r="R16" s="9">
         <f t="shared" si="10"/>
         <v>100</v>
       </c>
-      <c r="T16" s="9">
+      <c r="S16" s="9">
         <f t="shared" si="11"/>
         <v>100</v>
       </c>
-      <c r="U16" s="9">
+      <c r="T16" s="9">
         <f t="shared" si="12"/>
         <v>100</v>
       </c>
+      <c r="U16" s="9">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
       <c r="V16" s="9"/>
       <c r="X16" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="Y16" s="2">
@@ -2105,36 +2307,36 @@
         <v>1</v>
       </c>
       <c r="J17" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>450</v>
       </c>
       <c r="P17" s="9">
-        <f t="shared" si="7"/>
-        <v>75</v>
-      </c>
-      <c r="Q17" s="9">
         <f t="shared" si="8"/>
         <v>75</v>
       </c>
-      <c r="R17" s="9">
+      <c r="Q17" s="9">
         <f t="shared" si="9"/>
         <v>75</v>
       </c>
-      <c r="S17" s="9">
+      <c r="R17" s="9">
         <f t="shared" si="10"/>
         <v>75</v>
       </c>
-      <c r="T17" s="9">
+      <c r="S17" s="9">
         <f t="shared" si="11"/>
         <v>75</v>
       </c>
-      <c r="U17" s="9">
+      <c r="T17" s="9">
         <f t="shared" si="12"/>
         <v>75</v>
       </c>
+      <c r="U17" s="9">
+        <f t="shared" si="13"/>
+        <v>75</v>
+      </c>
       <c r="V17" s="9"/>
       <c r="X17" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.75</v>
       </c>
       <c r="Y17" s="2">
@@ -2169,36 +2371,36 @@
       <c r="H18" s="16"/>
       <c r="I18" s="16"/>
       <c r="J18" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P18" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q18" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R18" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="S18" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="T18" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U18" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V18" s="9"/>
       <c r="X18" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Y18" s="2">
@@ -2233,36 +2435,36 @@
       <c r="H19" s="16"/>
       <c r="I19" s="16"/>
       <c r="J19" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P19" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q19" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R19" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="S19" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="T19" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U19" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V19" s="9"/>
       <c r="X19" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Y19" s="2">
@@ -2297,36 +2499,36 @@
       <c r="H20" s="16"/>
       <c r="I20" s="16"/>
       <c r="J20" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P20" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q20" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R20" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="S20" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="T20" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U20" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V20" s="9"/>
       <c r="X20" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Y20" s="2">
@@ -2361,36 +2563,36 @@
       <c r="H21" s="16"/>
       <c r="I21" s="16"/>
       <c r="J21" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P21" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q21" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R21" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="S21" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="T21" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U21" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V21" s="9"/>
       <c r="X21" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Y21" s="2">
@@ -2425,36 +2627,36 @@
       <c r="H22" s="16"/>
       <c r="I22" s="16"/>
       <c r="J22" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P22" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q22" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R22" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="S22" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="T22" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U22" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V22" s="9"/>
       <c r="X22" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Y22" s="2">
@@ -2489,36 +2691,36 @@
       <c r="H23" s="16"/>
       <c r="I23" s="16"/>
       <c r="J23" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P23" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q23" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R23" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="S23" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="T23" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U23" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V23" s="9"/>
       <c r="X23" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Y23" s="2">
@@ -2553,36 +2755,36 @@
       <c r="H24" s="16"/>
       <c r="I24" s="16"/>
       <c r="J24" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P24" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q24" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R24" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="S24" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="T24" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U24" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V24" s="9"/>
       <c r="X24" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Y24" s="2">
@@ -2616,27 +2818,27 @@
         <v>14</v>
       </c>
       <c r="D25" s="11">
-        <f t="shared" ref="D25:I25" si="14">X$25</f>
+        <f t="shared" ref="D25:I25" si="20">X$25</f>
         <v>13</v>
       </c>
       <c r="E25" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>11.25</v>
       </c>
       <c r="F25" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>14</v>
       </c>
       <c r="G25" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>14</v>
       </c>
       <c r="H25" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>14</v>
       </c>
       <c r="I25" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>14</v>
       </c>
       <c r="J25" s="10">
@@ -2647,27 +2849,27 @@
         <v>8</v>
       </c>
       <c r="P25" s="9">
-        <f t="shared" ref="P25:U25" si="15">SUM(P3:P24)</f>
+        <f t="shared" ref="P25:U25" si="21">SUM(P3:P24)</f>
         <v>1300</v>
       </c>
       <c r="Q25" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>1125</v>
       </c>
       <c r="R25" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>1400</v>
       </c>
       <c r="S25" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>1400</v>
       </c>
       <c r="T25" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>1400</v>
       </c>
       <c r="U25" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>1400</v>
       </c>
       <c r="V25" s="9">
@@ -2675,27 +2877,27 @@
         <v>8025</v>
       </c>
       <c r="X25" s="2">
-        <f t="shared" ref="X25:AC25" si="16">SUM(X3:X24)</f>
+        <f t="shared" ref="X25:AC25" si="22">SUM(X3:X24)</f>
         <v>13</v>
       </c>
       <c r="Y25" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>11.25</v>
       </c>
       <c r="Z25" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>14</v>
       </c>
       <c r="AA25" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>14</v>
       </c>
       <c r="AB25" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>14</v>
       </c>
       <c r="AC25" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>14</v>
       </c>
       <c r="AD25" s="2">

--- a/team_folder/newFolder/Project Management/Logging/Meeting Report.xlsx
+++ b/team_folder/newFolder/Project Management/Logging/Meeting Report.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\groups\newFolder\Project Management\Logging\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\soet-students\courses\CPET-563\groups\newFolder\Project Management\Logging\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9972"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9975"/>
   </bookViews>
   <sheets>
     <sheet name="Weekly Meeting Costs" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
     <definedName name="TitleRegion..BO60">#REF!</definedName>
     <definedName name="Um">PeriodInPlan*(#REF!&gt;0)</definedName>
   </definedNames>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="162913" calcMode="manual" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -149,10 +149,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_(\$* #,##0.00_);_(\$* \(#,##0.00\);_(\$* \-??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -513,7 +513,7 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Currency 2" xfId="3"/>
@@ -844,33 +844,34 @@
   <dimension ref="A1:AMK26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AL15" sqref="AL15"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="42.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="42.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" style="2" customWidth="1"/>
     <col min="4" max="9" width="9" style="2" customWidth="1"/>
-    <col min="10" max="10" width="16.44140625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" style="2" customWidth="1"/>
-    <col min="13" max="14" width="8.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" style="2" customWidth="1"/>
+    <col min="13" max="14" width="8.7109375" style="2" customWidth="1"/>
     <col min="15" max="15" width="15" style="2" customWidth="1"/>
-    <col min="16" max="21" width="11.109375" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="11.109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="19.6640625" style="2" customWidth="1"/>
-    <col min="24" max="29" width="8.6640625" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="30" max="31" width="8.6640625" style="2" customWidth="1"/>
-    <col min="32" max="32" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="38" width="11.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="39" max="1025" width="8.6640625" style="2" customWidth="1"/>
-    <col min="1026" max="16384" width="8.88671875" style="1"/>
+    <col min="16" max="21" width="11.140625" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="11.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="19.7109375" style="2" customWidth="1"/>
+    <col min="24" max="29" width="8.7109375" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="30" max="30" width="8.7109375" style="2" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="8.7109375" style="2" customWidth="1"/>
+    <col min="32" max="32" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="38" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="39" max="1025" width="8.7109375" style="2" customWidth="1"/>
+    <col min="1026" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="38"/>
       <c r="B1" s="37" t="s">
         <v>23</v>
@@ -892,7 +893,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>20</v>
       </c>
@@ -981,7 +982,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" s="26">
         <v>43132</v>
       </c>
@@ -1089,7 +1090,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" s="19">
         <v>43137</v>
       </c>
@@ -1173,7 +1174,7 @@
       </c>
       <c r="AG4" s="40">
         <f>P25-AG3</f>
-        <v>225</v>
+        <v>275</v>
       </c>
       <c r="AH4" s="40">
         <f t="shared" ref="AH4:AL4" si="15">Q25-AH3</f>
@@ -1181,22 +1182,22 @@
       </c>
       <c r="AI4" s="40">
         <f t="shared" si="15"/>
-        <v>225</v>
+        <v>275</v>
       </c>
       <c r="AJ4" s="40">
         <f t="shared" si="15"/>
-        <v>225</v>
+        <v>275</v>
       </c>
       <c r="AK4" s="40">
         <f t="shared" si="15"/>
-        <v>225</v>
+        <v>275</v>
       </c>
       <c r="AL4" s="40">
         <f t="shared" si="15"/>
-        <v>225</v>
+        <v>275</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" s="19">
         <v>43139</v>
       </c>
@@ -1276,7 +1277,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6" s="19">
         <v>43144</v>
       </c>
@@ -1381,7 +1382,7 @@
         <v>11.75</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7" s="19">
         <v>43151</v>
       </c>
@@ -1467,7 +1468,7 @@
       </c>
       <c r="AG7" s="2">
         <f>X25-AG6</f>
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="AH7" s="2">
         <f t="shared" ref="AH7:AL7" si="17">Y25-AH6</f>
@@ -1475,22 +1476,22 @@
       </c>
       <c r="AI7" s="2">
         <f t="shared" si="17"/>
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="AJ7" s="2">
         <f t="shared" si="17"/>
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="AK7" s="2">
         <f t="shared" si="17"/>
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="AL7" s="2">
         <f t="shared" si="17"/>
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8" s="19">
         <v>43153</v>
       </c>
@@ -1570,7 +1571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9" s="19">
         <v>43158</v>
       </c>
@@ -1656,7 +1657,7 @@
       </c>
       <c r="AG9" s="39">
         <f>SUM(AG3,AG4)</f>
-        <v>1300</v>
+        <v>1350</v>
       </c>
       <c r="AH9" s="39">
         <f t="shared" ref="AH9:AL9" si="18">SUM(AH3,AH4)</f>
@@ -1664,22 +1665,22 @@
       </c>
       <c r="AI9" s="39">
         <f t="shared" si="18"/>
-        <v>1400</v>
+        <v>1450</v>
       </c>
       <c r="AJ9" s="39">
         <f t="shared" si="18"/>
-        <v>1400</v>
+        <v>1450</v>
       </c>
       <c r="AK9" s="39">
         <f t="shared" si="18"/>
-        <v>1400</v>
+        <v>1450</v>
       </c>
       <c r="AL9" s="39">
         <f t="shared" si="18"/>
-        <v>1400</v>
+        <v>1450</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10" s="19">
         <v>43160</v>
       </c>
@@ -1765,7 +1766,7 @@
       </c>
       <c r="AG10" s="2">
         <f>SUM(AG6+AG7)</f>
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH10" s="2">
         <f t="shared" ref="AH10:AL10" si="19">SUM(AH6+AH7)</f>
@@ -1773,22 +1774,22 @@
       </c>
       <c r="AI10" s="2">
         <f t="shared" si="19"/>
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AJ10" s="2">
         <f t="shared" si="19"/>
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AK10" s="2">
         <f t="shared" si="19"/>
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AL10" s="2">
         <f t="shared" si="19"/>
-        <v>14</v>
+        <v>14.5</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11" s="19">
         <v>43164</v>
       </c>
@@ -1870,7 +1871,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A12" s="19">
         <v>43165</v>
       </c>
@@ -1952,7 +1953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A13" s="19">
         <v>43167</v>
       </c>
@@ -2034,7 +2035,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A14" s="19">
         <v>43179</v>
       </c>
@@ -2114,7 +2115,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:38" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A15" s="19">
         <v>43186</v>
       </c>
@@ -2196,7 +2197,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:38" ht="27" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:38" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A16" s="19">
         <v>43195</v>
       </c>
@@ -2278,7 +2279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:30" ht="27" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:30" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A17" s="19">
         <v>43200</v>
       </c>
@@ -2360,23 +2361,37 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A18" s="19"/>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A18" s="19">
+        <v>43202</v>
+      </c>
       <c r="B18" s="18"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="16"/>
+      <c r="C18" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="D18" s="16">
+        <v>1</v>
+      </c>
       <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
+      <c r="F18" s="16">
+        <v>1</v>
+      </c>
+      <c r="G18" s="16">
+        <v>1</v>
+      </c>
+      <c r="H18" s="16">
+        <v>1</v>
+      </c>
+      <c r="I18" s="16">
+        <v>1</v>
+      </c>
       <c r="J18" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f>SUM(D18:I18)*100*C18</f>
+        <v>250</v>
       </c>
       <c r="P18" s="9">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Q18" s="9">
         <f t="shared" si="9"/>
@@ -2384,24 +2399,24 @@
       </c>
       <c r="R18" s="9">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="S18" s="9">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T18" s="9">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U18" s="9">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V18" s="9"/>
       <c r="X18" s="2">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Y18" s="2">
         <f t="shared" si="1"/>
@@ -2409,22 +2424,22 @@
       </c>
       <c r="Z18" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AA18" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AB18" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AC18" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" s="19"/>
       <c r="B19" s="18"/>
       <c r="C19" s="20"/>
@@ -2488,7 +2503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" s="19"/>
       <c r="B20" s="18"/>
       <c r="C20" s="20"/>
@@ -2552,7 +2567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" s="19"/>
       <c r="B21" s="18"/>
       <c r="C21" s="20"/>
@@ -2616,7 +2631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" s="19"/>
       <c r="B22" s="18"/>
       <c r="C22" s="20"/>
@@ -2680,7 +2695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" s="19"/>
       <c r="B23" s="18"/>
       <c r="C23" s="20"/>
@@ -2744,7 +2759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="19"/>
       <c r="B24" s="18"/>
       <c r="C24" s="17"/>
@@ -2808,18 +2823,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="14"/>
       <c r="B25" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="12">
         <f>SUM(C3:C24)</f>
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="D25" s="11">
         <f t="shared" ref="D25:I25" si="20">X$25</f>
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="E25" s="11">
         <f t="shared" si="20"/>
@@ -2827,30 +2842,30 @@
       </c>
       <c r="F25" s="11">
         <f t="shared" si="20"/>
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="G25" s="11">
         <f t="shared" si="20"/>
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="H25" s="11">
         <f t="shared" si="20"/>
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" si="20"/>
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="J25" s="10">
         <f>SUM(J3:J24)</f>
-        <v>8025</v>
+        <v>8275</v>
       </c>
       <c r="O25" s="2" t="s">
         <v>8</v>
       </c>
       <c r="P25" s="9">
         <f t="shared" ref="P25:U25" si="21">SUM(P3:P24)</f>
-        <v>1300</v>
+        <v>1350</v>
       </c>
       <c r="Q25" s="9">
         <f t="shared" si="21"/>
@@ -2858,27 +2873,27 @@
       </c>
       <c r="R25" s="9">
         <f t="shared" si="21"/>
-        <v>1400</v>
+        <v>1450</v>
       </c>
       <c r="S25" s="9">
         <f t="shared" si="21"/>
-        <v>1400</v>
+        <v>1450</v>
       </c>
       <c r="T25" s="9">
         <f t="shared" si="21"/>
-        <v>1400</v>
+        <v>1450</v>
       </c>
       <c r="U25" s="9">
         <f t="shared" si="21"/>
-        <v>1400</v>
+        <v>1450</v>
       </c>
       <c r="V25" s="9">
         <f>SUM(P25:U25)</f>
-        <v>8025</v>
+        <v>8275</v>
       </c>
       <c r="X25" s="2">
         <f t="shared" ref="X25:AC25" si="22">SUM(X3:X24)</f>
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Y25" s="2">
         <f t="shared" si="22"/>
@@ -2886,26 +2901,26 @@
       </c>
       <c r="Z25" s="2">
         <f t="shared" si="22"/>
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AA25" s="2">
         <f t="shared" si="22"/>
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AB25" s="2">
         <f t="shared" si="22"/>
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AC25" s="2">
         <f t="shared" si="22"/>
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AD25" s="2">
         <f>SUM(X25:AC25)</f>
-        <v>80.25</v>
+        <v>82.75</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B26" s="8"/>
       <c r="C26" s="7" t="s">
         <v>7</v>

--- a/team_folder/newFolder/Project Management/Logging/Meeting Report.xlsx
+++ b/team_folder/newFolder/Project Management/Logging/Meeting Report.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\soet-students\courses\CPET-563\groups\newFolder\Project Management\Logging\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\groups\newFolder\Project Management\Logging\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9975"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9972"/>
   </bookViews>
   <sheets>
     <sheet name="Weekly Meeting Costs" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
     <definedName name="TitleRegion..BO60">#REF!</definedName>
     <definedName name="Um">PeriodInPlan*(#REF!&gt;0)</definedName>
   </definedNames>
-  <calcPr calcId="162913" calcMode="manual" iterateDelta="1E-4"/>
+  <calcPr calcId="152511" calcMode="manual" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="33">
   <si>
     <t>Cost</t>
   </si>
@@ -145,12 +145,16 @@
   <si>
     <t>Total Costs</t>
   </si>
+  <si>
+    <t>Team</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(\$* #,##0.00_);_(\$* \(#,##0.00\);_(\$* \-??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
@@ -446,7 +450,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
@@ -514,6 +518,7 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Currency 2" xfId="3"/>
@@ -844,34 +849,37 @@
   <dimension ref="A1:AMK26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J19" sqref="J19"/>
+      <pane xSplit="1" topLeftCell="AM1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BF8" sqref="BF8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="42.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="42.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.109375" style="2" customWidth="1"/>
     <col min="4" max="9" width="9" style="2" customWidth="1"/>
-    <col min="10" max="10" width="16.42578125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="9.28515625" style="2" customWidth="1"/>
-    <col min="13" max="14" width="8.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="16.44140625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" style="2" customWidth="1"/>
+    <col min="13" max="14" width="8.6640625" style="2" customWidth="1"/>
     <col min="15" max="15" width="15" style="2" customWidth="1"/>
-    <col min="16" max="21" width="11.140625" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="11.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="19.7109375" style="2" customWidth="1"/>
-    <col min="24" max="29" width="8.7109375" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="30" max="30" width="8.7109375" style="2" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="8.7109375" style="2" customWidth="1"/>
-    <col min="32" max="32" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="38" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="39" max="1025" width="8.7109375" style="2" customWidth="1"/>
-    <col min="1026" max="16384" width="8.85546875" style="1"/>
+    <col min="16" max="21" width="11.109375" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="11.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.6640625" style="2" customWidth="1"/>
+    <col min="24" max="29" width="8.6640625" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="30" max="31" width="8.6640625" style="2" customWidth="1"/>
+    <col min="32" max="32" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="38" width="11.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="8.6640625" style="2" customWidth="1"/>
+    <col min="41" max="41" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="42" max="47" width="11.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="13.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="49" max="1025" width="8.6640625" style="2" customWidth="1"/>
+    <col min="1026" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="38"/>
       <c r="B1" s="37" t="s">
         <v>23</v>
@@ -892,8 +900,15 @@
       <c r="W1" s="22" t="s">
         <v>21</v>
       </c>
+      <c r="AO1" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="AQ1" s="33"/>
+      <c r="AX1" s="22" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>20</v>
       </c>
@@ -981,8 +996,48 @@
       <c r="AL2" s="27" t="s">
         <v>18</v>
       </c>
+      <c r="AP2" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="AQ2" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR2" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS2" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT2" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU2" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="AV2" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="AX2" s="22"/>
+      <c r="AY2" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="AZ2" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="BA2" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="BB2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="BC2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD2" s="22" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A3" s="26">
         <v>43132</v>
       </c>
@@ -1089,8 +1144,60 @@
         <f t="shared" si="6"/>
         <v>1175</v>
       </c>
+      <c r="AP3" s="9">
+        <f>IF(D3=1,100*$C3,0)</f>
+        <v>50</v>
+      </c>
+      <c r="AQ3" s="9">
+        <f t="shared" ref="AQ3:AU3" si="7">IF(E3=1,100*$C3,0)</f>
+        <v>50</v>
+      </c>
+      <c r="AR3" s="9">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="AS3" s="9">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="AT3" s="9">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="AU3" s="9">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="AV3" s="9">
+        <f>IF(SUM(AP3:AU3)= 0,0,SUM(AP3:AU3))</f>
+        <v>300</v>
+      </c>
+      <c r="AY3" s="41">
+        <f>AP3*0.01</f>
+        <v>0.5</v>
+      </c>
+      <c r="AZ3" s="41">
+        <f>AQ3*0.01</f>
+        <v>0.5</v>
+      </c>
+      <c r="BA3" s="41">
+        <f>AR3*0.01</f>
+        <v>0.5</v>
+      </c>
+      <c r="BB3" s="41">
+        <f>AS3*0.01</f>
+        <v>0.5</v>
+      </c>
+      <c r="BC3" s="41">
+        <f>AT3*0.01</f>
+        <v>0.5</v>
+      </c>
+      <c r="BD3" s="41">
+        <f>AU3*0.01</f>
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A4" s="19">
         <v>43137</v>
       </c>
@@ -1117,36 +1224,36 @@
         <v>1</v>
       </c>
       <c r="J4" s="15">
-        <f t="shared" ref="J4:J24" si="7">SUM(D4:I4)*100*C4</f>
+        <f t="shared" ref="J4:J24" si="8">SUM(D4:I4)*100*C4</f>
         <v>300</v>
       </c>
       <c r="P4" s="9">
-        <f t="shared" ref="P4:P24" si="8">IF(D4=1,100*$C4,0)</f>
+        <f t="shared" ref="P4:P24" si="9">IF(D4=1,100*$C4,0)</f>
         <v>50</v>
       </c>
       <c r="Q4" s="9">
-        <f t="shared" ref="Q4:Q24" si="9">IF(E4=1,100*$C4,0)</f>
+        <f t="shared" ref="Q4:Q24" si="10">IF(E4=1,100*$C4,0)</f>
         <v>50</v>
       </c>
       <c r="R4" s="9">
-        <f t="shared" ref="R4:R24" si="10">IF(F4=1,100*$C4,0)</f>
+        <f t="shared" ref="R4:R24" si="11">IF(F4=1,100*$C4,0)</f>
         <v>50</v>
       </c>
       <c r="S4" s="9">
-        <f t="shared" ref="S4:S24" si="11">IF(G4=1,100*$C4,0)</f>
+        <f t="shared" ref="S4:S24" si="12">IF(G4=1,100*$C4,0)</f>
         <v>50</v>
       </c>
       <c r="T4" s="9">
-        <f t="shared" ref="T4:T24" si="12">IF(H4=1,100*$C4,0)</f>
+        <f t="shared" ref="T4:T24" si="13">IF(H4=1,100*$C4,0)</f>
         <v>50</v>
       </c>
       <c r="U4" s="9">
-        <f t="shared" ref="U4:U24" si="13">IF(I4=1,100*$C4,0)</f>
+        <f t="shared" ref="U4:U24" si="14">IF(I4=1,100*$C4,0)</f>
         <v>50</v>
       </c>
       <c r="V4" s="9"/>
       <c r="X4" s="2">
-        <f t="shared" ref="X4:X24" si="14">IF(D4=1,$C4,0)</f>
+        <f t="shared" ref="X4:X24" si="15">IF(D4=1,$C4,0)</f>
         <v>0.5</v>
       </c>
       <c r="Y4" s="2">
@@ -1177,27 +1284,79 @@
         <v>275</v>
       </c>
       <c r="AH4" s="40">
-        <f t="shared" ref="AH4:AL4" si="15">Q25-AH3</f>
+        <f t="shared" ref="AH4:AL4" si="16">Q25-AH3</f>
         <v>225</v>
       </c>
       <c r="AI4" s="40">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>275</v>
       </c>
       <c r="AJ4" s="40">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>275</v>
       </c>
       <c r="AK4" s="40">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>275</v>
       </c>
       <c r="AL4" s="40">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>275</v>
       </c>
+      <c r="AP4" s="9">
+        <f>IF(D4=1,100*$C4+AP3,AP3)</f>
+        <v>100</v>
+      </c>
+      <c r="AQ4" s="9">
+        <f t="shared" ref="AQ4:AU4" si="17">IF(E4=1,100*$C4+AQ3,AQ3)</f>
+        <v>100</v>
+      </c>
+      <c r="AR4" s="9">
+        <f t="shared" si="17"/>
+        <v>100</v>
+      </c>
+      <c r="AS4" s="9">
+        <f t="shared" si="17"/>
+        <v>100</v>
+      </c>
+      <c r="AT4" s="9">
+        <f t="shared" si="17"/>
+        <v>100</v>
+      </c>
+      <c r="AU4" s="9">
+        <f t="shared" si="17"/>
+        <v>100</v>
+      </c>
+      <c r="AV4" s="9">
+        <f>IF(SUM(AP4:AU4)= 0,AV3,SUM(AP4:AU4)+AV3)</f>
+        <v>900</v>
+      </c>
+      <c r="AY4" s="41">
+        <f>AP4*0.01</f>
+        <v>1</v>
+      </c>
+      <c r="AZ4" s="41">
+        <f>AQ4*0.01</f>
+        <v>1</v>
+      </c>
+      <c r="BA4" s="41">
+        <f>AR4*0.01</f>
+        <v>1</v>
+      </c>
+      <c r="BB4" s="41">
+        <f>AS4*0.01</f>
+        <v>1</v>
+      </c>
+      <c r="BC4" s="41">
+        <f>AT4*0.01</f>
+        <v>1</v>
+      </c>
+      <c r="BD4" s="41">
+        <f>AU4*0.01</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A5" s="19">
         <v>43139</v>
       </c>
@@ -1224,36 +1383,36 @@
         <v>1</v>
       </c>
       <c r="J5" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>300</v>
       </c>
       <c r="P5" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>50</v>
       </c>
       <c r="Q5" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>50</v>
       </c>
       <c r="R5" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>50</v>
       </c>
       <c r="S5" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>50</v>
       </c>
       <c r="T5" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>50</v>
       </c>
       <c r="U5" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>50</v>
       </c>
       <c r="V5" s="9"/>
       <c r="X5" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.5</v>
       </c>
       <c r="Y5" s="2">
@@ -1276,8 +1435,60 @@
         <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
+      <c r="AP5" s="9">
+        <f t="shared" ref="AP5:AP24" si="18">IF(D5=1,100*$C5+AP4,AP4)</f>
+        <v>150</v>
+      </c>
+      <c r="AQ5" s="9">
+        <f t="shared" ref="AQ5:AQ24" si="19">IF(E5=1,100*$C5+AQ4,AQ4)</f>
+        <v>150</v>
+      </c>
+      <c r="AR5" s="9">
+        <f t="shared" ref="AR5:AR24" si="20">IF(F5=1,100*$C5+AR4,AR4)</f>
+        <v>150</v>
+      </c>
+      <c r="AS5" s="9">
+        <f t="shared" ref="AS5:AS24" si="21">IF(G5=1,100*$C5+AS4,AS4)</f>
+        <v>150</v>
+      </c>
+      <c r="AT5" s="9">
+        <f t="shared" ref="AT5:AT24" si="22">IF(H5=1,100*$C5+AT4,AT4)</f>
+        <v>150</v>
+      </c>
+      <c r="AU5" s="9">
+        <f t="shared" ref="AU5:AU24" si="23">IF(I5=1,100*$C5+AU4,AU4)</f>
+        <v>150</v>
+      </c>
+      <c r="AV5" s="9">
+        <f>IF(SUM(AP5:AU5)= 0,AV4,SUM(AP5:AU5)+AV4)</f>
+        <v>1800</v>
+      </c>
+      <c r="AY5" s="41">
+        <f>AP5*0.01</f>
+        <v>1.5</v>
+      </c>
+      <c r="AZ5" s="41">
+        <f>AQ5*0.01</f>
+        <v>1.5</v>
+      </c>
+      <c r="BA5" s="41">
+        <f>AR5*0.01</f>
+        <v>1.5</v>
+      </c>
+      <c r="BB5" s="41">
+        <f>AS5*0.01</f>
+        <v>1.5</v>
+      </c>
+      <c r="BC5" s="41">
+        <f>AT5*0.01</f>
+        <v>1.5</v>
+      </c>
+      <c r="BD5" s="41">
+        <f>AU5*0.01</f>
+        <v>1.5</v>
+      </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A6" s="19">
         <v>43144</v>
       </c>
@@ -1302,36 +1513,36 @@
         <v>1</v>
       </c>
       <c r="J6" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>375</v>
       </c>
       <c r="P6" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>75</v>
       </c>
       <c r="Q6" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="R6" s="9">
-        <f t="shared" si="10"/>
-        <v>75</v>
-      </c>
-      <c r="S6" s="9">
         <f t="shared" si="11"/>
         <v>75</v>
       </c>
-      <c r="T6" s="9">
+      <c r="S6" s="9">
         <f t="shared" si="12"/>
         <v>75</v>
       </c>
-      <c r="U6" s="9">
+      <c r="T6" s="9">
         <f t="shared" si="13"/>
         <v>75</v>
       </c>
+      <c r="U6" s="9">
+        <f t="shared" si="14"/>
+        <v>75</v>
+      </c>
       <c r="V6" s="9"/>
       <c r="X6" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.75</v>
       </c>
       <c r="Y6" s="2">
@@ -1362,27 +1573,79 @@
         <v>10.75</v>
       </c>
       <c r="AH6" s="2">
-        <f t="shared" ref="AH6:AL6" si="16">SUM(Y3:Y14)</f>
+        <f t="shared" ref="AH6:AL6" si="24">SUM(Y3:Y14)</f>
         <v>9</v>
       </c>
       <c r="AI6" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>11.75</v>
       </c>
       <c r="AJ6" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>11.75</v>
       </c>
       <c r="AK6" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>11.75</v>
       </c>
       <c r="AL6" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>11.75</v>
       </c>
+      <c r="AP6" s="9">
+        <f t="shared" si="18"/>
+        <v>225</v>
+      </c>
+      <c r="AQ6" s="9">
+        <f t="shared" si="19"/>
+        <v>150</v>
+      </c>
+      <c r="AR6" s="9">
+        <f t="shared" si="20"/>
+        <v>225</v>
+      </c>
+      <c r="AS6" s="9">
+        <f t="shared" si="21"/>
+        <v>225</v>
+      </c>
+      <c r="AT6" s="9">
+        <f t="shared" si="22"/>
+        <v>225</v>
+      </c>
+      <c r="AU6" s="9">
+        <f t="shared" si="23"/>
+        <v>225</v>
+      </c>
+      <c r="AV6" s="9">
+        <f t="shared" ref="AV5:AV24" si="25">IF(SUM(AP6:AU6)= 0,AV5,SUM(AP6:AU6)+AV5)</f>
+        <v>3075</v>
+      </c>
+      <c r="AY6" s="41">
+        <f>AP6*0.01</f>
+        <v>2.25</v>
+      </c>
+      <c r="AZ6" s="41">
+        <f>AQ6*0.01</f>
+        <v>1.5</v>
+      </c>
+      <c r="BA6" s="41">
+        <f>AR6*0.01</f>
+        <v>2.25</v>
+      </c>
+      <c r="BB6" s="41">
+        <f>AS6*0.01</f>
+        <v>2.25</v>
+      </c>
+      <c r="BC6" s="41">
+        <f>AT6*0.01</f>
+        <v>2.25</v>
+      </c>
+      <c r="BD6" s="41">
+        <f>AU6*0.01</f>
+        <v>2.25</v>
+      </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A7" s="19">
         <v>43151</v>
       </c>
@@ -1411,36 +1674,36 @@
         <v>1</v>
       </c>
       <c r="J7" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>600</v>
       </c>
       <c r="P7" s="9">
-        <f t="shared" si="8"/>
-        <v>100</v>
-      </c>
-      <c r="Q7" s="9">
         <f t="shared" si="9"/>
         <v>100</v>
       </c>
-      <c r="R7" s="9">
+      <c r="Q7" s="9">
         <f t="shared" si="10"/>
         <v>100</v>
       </c>
-      <c r="S7" s="9">
+      <c r="R7" s="9">
         <f t="shared" si="11"/>
         <v>100</v>
       </c>
-      <c r="T7" s="9">
+      <c r="S7" s="9">
         <f t="shared" si="12"/>
         <v>100</v>
       </c>
-      <c r="U7" s="9">
+      <c r="T7" s="9">
         <f t="shared" si="13"/>
         <v>100</v>
       </c>
+      <c r="U7" s="9">
+        <f t="shared" si="14"/>
+        <v>100</v>
+      </c>
       <c r="V7" s="9"/>
       <c r="X7" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="Y7" s="2">
@@ -1471,27 +1734,79 @@
         <v>2.75</v>
       </c>
       <c r="AH7" s="2">
-        <f t="shared" ref="AH7:AL7" si="17">Y25-AH6</f>
+        <f t="shared" ref="AH7:AL7" si="26">Y25-AH6</f>
         <v>2.25</v>
       </c>
       <c r="AI7" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>2.75</v>
       </c>
       <c r="AJ7" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>2.75</v>
       </c>
       <c r="AK7" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>2.75</v>
       </c>
       <c r="AL7" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>2.75</v>
       </c>
+      <c r="AP7" s="9">
+        <f>IF(D7=1,100*$C7+AP6,AP6)</f>
+        <v>325</v>
+      </c>
+      <c r="AQ7" s="9">
+        <f t="shared" si="19"/>
+        <v>250</v>
+      </c>
+      <c r="AR7" s="9">
+        <f t="shared" si="20"/>
+        <v>325</v>
+      </c>
+      <c r="AS7" s="9">
+        <f t="shared" si="21"/>
+        <v>325</v>
+      </c>
+      <c r="AT7" s="9">
+        <f t="shared" si="22"/>
+        <v>325</v>
+      </c>
+      <c r="AU7" s="9">
+        <f t="shared" si="23"/>
+        <v>325</v>
+      </c>
+      <c r="AV7" s="9">
+        <f>IF(SUM(AP7:AU7)= 0,AV6,SUM(AP7:AU7)+AV6)</f>
+        <v>4950</v>
+      </c>
+      <c r="AY7" s="41">
+        <f>AP7*0.01</f>
+        <v>3.25</v>
+      </c>
+      <c r="AZ7" s="41">
+        <f>AQ7*0.01</f>
+        <v>2.5</v>
+      </c>
+      <c r="BA7" s="41">
+        <f>AR7*0.01</f>
+        <v>3.25</v>
+      </c>
+      <c r="BB7" s="41">
+        <f>AS7*0.01</f>
+        <v>3.25</v>
+      </c>
+      <c r="BC7" s="41">
+        <f>AT7*0.01</f>
+        <v>3.25</v>
+      </c>
+      <c r="BD7" s="41">
+        <f>AU7*0.01</f>
+        <v>3.25</v>
+      </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A8" s="19">
         <v>43153</v>
       </c>
@@ -1518,36 +1833,36 @@
         <v>1</v>
       </c>
       <c r="J8" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>500</v>
       </c>
       <c r="P8" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q8" s="9">
-        <f t="shared" si="9"/>
-        <v>100</v>
-      </c>
-      <c r="R8" s="9">
         <f t="shared" si="10"/>
         <v>100</v>
       </c>
-      <c r="S8" s="9">
+      <c r="R8" s="9">
         <f t="shared" si="11"/>
         <v>100</v>
       </c>
-      <c r="T8" s="9">
+      <c r="S8" s="9">
         <f t="shared" si="12"/>
         <v>100</v>
       </c>
-      <c r="U8" s="9">
+      <c r="T8" s="9">
         <f t="shared" si="13"/>
         <v>100</v>
       </c>
+      <c r="U8" s="9">
+        <f t="shared" si="14"/>
+        <v>100</v>
+      </c>
       <c r="V8" s="9"/>
       <c r="X8" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Y8" s="2">
@@ -1570,8 +1885,60 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
+      <c r="AP8" s="9">
+        <f t="shared" si="18"/>
+        <v>325</v>
+      </c>
+      <c r="AQ8" s="9">
+        <f t="shared" si="19"/>
+        <v>350</v>
+      </c>
+      <c r="AR8" s="9">
+        <f t="shared" si="20"/>
+        <v>425</v>
+      </c>
+      <c r="AS8" s="9">
+        <f t="shared" si="21"/>
+        <v>425</v>
+      </c>
+      <c r="AT8" s="9">
+        <f t="shared" si="22"/>
+        <v>425</v>
+      </c>
+      <c r="AU8" s="9">
+        <f t="shared" si="23"/>
+        <v>425</v>
+      </c>
+      <c r="AV8" s="9">
+        <f t="shared" si="25"/>
+        <v>7325</v>
+      </c>
+      <c r="AY8" s="41">
+        <f>AP8*0.01</f>
+        <v>3.25</v>
+      </c>
+      <c r="AZ8" s="41">
+        <f>AQ8*0.01</f>
+        <v>3.5</v>
+      </c>
+      <c r="BA8" s="41">
+        <f>AR8*0.01</f>
+        <v>4.25</v>
+      </c>
+      <c r="BB8" s="41">
+        <f>AS8*0.01</f>
+        <v>4.25</v>
+      </c>
+      <c r="BC8" s="41">
+        <f>AT8*0.01</f>
+        <v>4.25</v>
+      </c>
+      <c r="BD8" s="41">
+        <f>AU8*0.01</f>
+        <v>4.25</v>
+      </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A9" s="19">
         <v>43158</v>
       </c>
@@ -1600,36 +1967,36 @@
         <v>1</v>
       </c>
       <c r="J9" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>900</v>
       </c>
       <c r="P9" s="9">
-        <f t="shared" si="8"/>
-        <v>150</v>
-      </c>
-      <c r="Q9" s="9">
         <f t="shared" si="9"/>
         <v>150</v>
       </c>
-      <c r="R9" s="9">
+      <c r="Q9" s="9">
         <f t="shared" si="10"/>
         <v>150</v>
       </c>
-      <c r="S9" s="9">
+      <c r="R9" s="9">
         <f t="shared" si="11"/>
         <v>150</v>
       </c>
-      <c r="T9" s="9">
+      <c r="S9" s="9">
         <f t="shared" si="12"/>
         <v>150</v>
       </c>
-      <c r="U9" s="9">
+      <c r="T9" s="9">
         <f t="shared" si="13"/>
         <v>150</v>
       </c>
+      <c r="U9" s="9">
+        <f t="shared" si="14"/>
+        <v>150</v>
+      </c>
       <c r="V9" s="9"/>
       <c r="X9" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.5</v>
       </c>
       <c r="Y9" s="2">
@@ -1660,27 +2027,79 @@
         <v>1350</v>
       </c>
       <c r="AH9" s="39">
-        <f t="shared" ref="AH9:AL9" si="18">SUM(AH3,AH4)</f>
+        <f t="shared" ref="AH9:AL9" si="27">SUM(AH3,AH4)</f>
         <v>1125</v>
       </c>
       <c r="AI9" s="39">
+        <f t="shared" si="27"/>
+        <v>1450</v>
+      </c>
+      <c r="AJ9" s="39">
+        <f t="shared" si="27"/>
+        <v>1450</v>
+      </c>
+      <c r="AK9" s="39">
+        <f t="shared" si="27"/>
+        <v>1450</v>
+      </c>
+      <c r="AL9" s="39">
+        <f t="shared" si="27"/>
+        <v>1450</v>
+      </c>
+      <c r="AP9" s="9">
         <f t="shared" si="18"/>
-        <v>1450</v>
-      </c>
-      <c r="AJ9" s="39">
-        <f t="shared" si="18"/>
-        <v>1450</v>
-      </c>
-      <c r="AK9" s="39">
-        <f t="shared" si="18"/>
-        <v>1450</v>
-      </c>
-      <c r="AL9" s="39">
-        <f t="shared" si="18"/>
-        <v>1450</v>
+        <v>475</v>
+      </c>
+      <c r="AQ9" s="9">
+        <f t="shared" si="19"/>
+        <v>500</v>
+      </c>
+      <c r="AR9" s="9">
+        <f t="shared" si="20"/>
+        <v>575</v>
+      </c>
+      <c r="AS9" s="9">
+        <f t="shared" si="21"/>
+        <v>575</v>
+      </c>
+      <c r="AT9" s="9">
+        <f t="shared" si="22"/>
+        <v>575</v>
+      </c>
+      <c r="AU9" s="9">
+        <f t="shared" si="23"/>
+        <v>575</v>
+      </c>
+      <c r="AV9" s="9">
+        <f t="shared" si="25"/>
+        <v>10600</v>
+      </c>
+      <c r="AY9" s="41">
+        <f>AP9*0.01</f>
+        <v>4.75</v>
+      </c>
+      <c r="AZ9" s="41">
+        <f>AQ9*0.01</f>
+        <v>5</v>
+      </c>
+      <c r="BA9" s="41">
+        <f>AR9*0.01</f>
+        <v>5.75</v>
+      </c>
+      <c r="BB9" s="41">
+        <f>AS9*0.01</f>
+        <v>5.75</v>
+      </c>
+      <c r="BC9" s="41">
+        <f>AT9*0.01</f>
+        <v>5.75</v>
+      </c>
+      <c r="BD9" s="41">
+        <f>AU9*0.01</f>
+        <v>5.75</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A10" s="19">
         <v>43160</v>
       </c>
@@ -1709,36 +2128,36 @@
         <v>1</v>
       </c>
       <c r="J10" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1200</v>
       </c>
       <c r="P10" s="9">
-        <f t="shared" si="8"/>
-        <v>200</v>
-      </c>
-      <c r="Q10" s="9">
         <f t="shared" si="9"/>
         <v>200</v>
       </c>
-      <c r="R10" s="9">
+      <c r="Q10" s="9">
         <f t="shared" si="10"/>
         <v>200</v>
       </c>
-      <c r="S10" s="9">
+      <c r="R10" s="9">
         <f t="shared" si="11"/>
         <v>200</v>
       </c>
-      <c r="T10" s="9">
+      <c r="S10" s="9">
         <f t="shared" si="12"/>
         <v>200</v>
       </c>
-      <c r="U10" s="9">
+      <c r="T10" s="9">
         <f t="shared" si="13"/>
         <v>200</v>
       </c>
+      <c r="U10" s="9">
+        <f t="shared" si="14"/>
+        <v>200</v>
+      </c>
       <c r="V10" s="9"/>
       <c r="X10" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="Y10" s="2">
@@ -1769,27 +2188,79 @@
         <v>13.5</v>
       </c>
       <c r="AH10" s="2">
-        <f t="shared" ref="AH10:AL10" si="19">SUM(AH6+AH7)</f>
+        <f t="shared" ref="AH10:AL10" si="28">SUM(AH6+AH7)</f>
         <v>11.25</v>
       </c>
       <c r="AI10" s="2">
+        <f t="shared" si="28"/>
+        <v>14.5</v>
+      </c>
+      <c r="AJ10" s="2">
+        <f t="shared" si="28"/>
+        <v>14.5</v>
+      </c>
+      <c r="AK10" s="2">
+        <f t="shared" si="28"/>
+        <v>14.5</v>
+      </c>
+      <c r="AL10" s="2">
+        <f t="shared" si="28"/>
+        <v>14.5</v>
+      </c>
+      <c r="AP10" s="9">
+        <f t="shared" si="18"/>
+        <v>675</v>
+      </c>
+      <c r="AQ10" s="9">
         <f t="shared" si="19"/>
-        <v>14.5</v>
-      </c>
-      <c r="AJ10" s="2">
-        <f t="shared" si="19"/>
-        <v>14.5</v>
-      </c>
-      <c r="AK10" s="2">
-        <f t="shared" si="19"/>
-        <v>14.5</v>
-      </c>
-      <c r="AL10" s="2">
-        <f t="shared" si="19"/>
-        <v>14.5</v>
+        <v>700</v>
+      </c>
+      <c r="AR10" s="9">
+        <f t="shared" si="20"/>
+        <v>775</v>
+      </c>
+      <c r="AS10" s="9">
+        <f t="shared" si="21"/>
+        <v>775</v>
+      </c>
+      <c r="AT10" s="9">
+        <f t="shared" si="22"/>
+        <v>775</v>
+      </c>
+      <c r="AU10" s="9">
+        <f t="shared" si="23"/>
+        <v>775</v>
+      </c>
+      <c r="AV10" s="9">
+        <f t="shared" si="25"/>
+        <v>15075</v>
+      </c>
+      <c r="AY10" s="41">
+        <f>AP10*0.01</f>
+        <v>6.75</v>
+      </c>
+      <c r="AZ10" s="41">
+        <f>AQ10*0.01</f>
+        <v>7</v>
+      </c>
+      <c r="BA10" s="41">
+        <f>AR10*0.01</f>
+        <v>7.75</v>
+      </c>
+      <c r="BB10" s="41">
+        <f>AS10*0.01</f>
+        <v>7.75</v>
+      </c>
+      <c r="BC10" s="41">
+        <f>AT10*0.01</f>
+        <v>7.75</v>
+      </c>
+      <c r="BD10" s="41">
+        <f>AU10*0.01</f>
+        <v>7.75</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A11" s="19">
         <v>43164</v>
       </c>
@@ -1818,36 +2289,36 @@
         <v>1</v>
       </c>
       <c r="J11" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>300</v>
       </c>
       <c r="P11" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>50</v>
       </c>
       <c r="Q11" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>50</v>
       </c>
       <c r="R11" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>50</v>
       </c>
       <c r="S11" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>50</v>
       </c>
       <c r="T11" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>50</v>
       </c>
       <c r="U11" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>50</v>
       </c>
       <c r="V11" s="9"/>
       <c r="X11" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.5</v>
       </c>
       <c r="Y11" s="2">
@@ -1870,8 +2341,60 @@
         <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
+      <c r="AP11" s="9">
+        <f t="shared" si="18"/>
+        <v>725</v>
+      </c>
+      <c r="AQ11" s="9">
+        <f t="shared" si="19"/>
+        <v>750</v>
+      </c>
+      <c r="AR11" s="9">
+        <f t="shared" si="20"/>
+        <v>825</v>
+      </c>
+      <c r="AS11" s="9">
+        <f t="shared" si="21"/>
+        <v>825</v>
+      </c>
+      <c r="AT11" s="9">
+        <f t="shared" si="22"/>
+        <v>825</v>
+      </c>
+      <c r="AU11" s="9">
+        <f t="shared" si="23"/>
+        <v>825</v>
+      </c>
+      <c r="AV11" s="9">
+        <f t="shared" si="25"/>
+        <v>19850</v>
+      </c>
+      <c r="AY11" s="41">
+        <f>AP11*0.01</f>
+        <v>7.25</v>
+      </c>
+      <c r="AZ11" s="41">
+        <f>AQ11*0.01</f>
+        <v>7.5</v>
+      </c>
+      <c r="BA11" s="41">
+        <f>AR11*0.01</f>
+        <v>8.25</v>
+      </c>
+      <c r="BB11" s="41">
+        <f>AS11*0.01</f>
+        <v>8.25</v>
+      </c>
+      <c r="BC11" s="41">
+        <f>AT11*0.01</f>
+        <v>8.25</v>
+      </c>
+      <c r="BD11" s="41">
+        <f>AU11*0.01</f>
+        <v>8.25</v>
+      </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A12" s="19">
         <v>43165</v>
       </c>
@@ -1900,36 +2423,36 @@
         <v>1</v>
       </c>
       <c r="J12" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>600</v>
       </c>
       <c r="P12" s="9">
-        <f t="shared" si="8"/>
-        <v>100</v>
-      </c>
-      <c r="Q12" s="9">
         <f t="shared" si="9"/>
         <v>100</v>
       </c>
-      <c r="R12" s="9">
+      <c r="Q12" s="9">
         <f t="shared" si="10"/>
         <v>100</v>
       </c>
-      <c r="S12" s="9">
+      <c r="R12" s="9">
         <f t="shared" si="11"/>
         <v>100</v>
       </c>
-      <c r="T12" s="9">
+      <c r="S12" s="9">
         <f t="shared" si="12"/>
         <v>100</v>
       </c>
-      <c r="U12" s="9">
+      <c r="T12" s="9">
         <f t="shared" si="13"/>
         <v>100</v>
       </c>
+      <c r="U12" s="9">
+        <f t="shared" si="14"/>
+        <v>100</v>
+      </c>
       <c r="V12" s="9"/>
       <c r="X12" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="Y12" s="2">
@@ -1952,8 +2475,60 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
+      <c r="AP12" s="9">
+        <f t="shared" si="18"/>
+        <v>825</v>
+      </c>
+      <c r="AQ12" s="9">
+        <f t="shared" si="19"/>
+        <v>850</v>
+      </c>
+      <c r="AR12" s="9">
+        <f t="shared" si="20"/>
+        <v>925</v>
+      </c>
+      <c r="AS12" s="9">
+        <f t="shared" si="21"/>
+        <v>925</v>
+      </c>
+      <c r="AT12" s="9">
+        <f t="shared" si="22"/>
+        <v>925</v>
+      </c>
+      <c r="AU12" s="9">
+        <f t="shared" si="23"/>
+        <v>925</v>
+      </c>
+      <c r="AV12" s="9">
+        <f t="shared" si="25"/>
+        <v>25225</v>
+      </c>
+      <c r="AY12" s="41">
+        <f>AP12*0.01</f>
+        <v>8.25</v>
+      </c>
+      <c r="AZ12" s="41">
+        <f>AQ12*0.01</f>
+        <v>8.5</v>
+      </c>
+      <c r="BA12" s="41">
+        <f>AR12*0.01</f>
+        <v>9.25</v>
+      </c>
+      <c r="BB12" s="41">
+        <f>AS12*0.01</f>
+        <v>9.25</v>
+      </c>
+      <c r="BC12" s="41">
+        <f>AT12*0.01</f>
+        <v>9.25</v>
+      </c>
+      <c r="BD12" s="41">
+        <f>AU12*0.01</f>
+        <v>9.25</v>
+      </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A13" s="19">
         <v>43167</v>
       </c>
@@ -1982,36 +2557,36 @@
         <v>1</v>
       </c>
       <c r="J13" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>300</v>
       </c>
       <c r="P13" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>50</v>
       </c>
       <c r="Q13" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>50</v>
       </c>
       <c r="R13" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>50</v>
       </c>
       <c r="S13" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>50</v>
       </c>
       <c r="T13" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>50</v>
       </c>
       <c r="U13" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>50</v>
       </c>
       <c r="V13" s="9"/>
       <c r="X13" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.5</v>
       </c>
       <c r="Y13" s="2">
@@ -2034,8 +2609,60 @@
         <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
+      <c r="AP13" s="9">
+        <f t="shared" si="18"/>
+        <v>875</v>
+      </c>
+      <c r="AQ13" s="9">
+        <f t="shared" si="19"/>
+        <v>900</v>
+      </c>
+      <c r="AR13" s="9">
+        <f t="shared" si="20"/>
+        <v>975</v>
+      </c>
+      <c r="AS13" s="9">
+        <f t="shared" si="21"/>
+        <v>975</v>
+      </c>
+      <c r="AT13" s="9">
+        <f t="shared" si="22"/>
+        <v>975</v>
+      </c>
+      <c r="AU13" s="9">
+        <f t="shared" si="23"/>
+        <v>975</v>
+      </c>
+      <c r="AV13" s="9">
+        <f t="shared" si="25"/>
+        <v>30900</v>
+      </c>
+      <c r="AY13" s="41">
+        <f>AP13*0.01</f>
+        <v>8.75</v>
+      </c>
+      <c r="AZ13" s="41">
+        <f>AQ13*0.01</f>
+        <v>9</v>
+      </c>
+      <c r="BA13" s="41">
+        <f>AR13*0.01</f>
+        <v>9.75</v>
+      </c>
+      <c r="BB13" s="41">
+        <f>AS13*0.01</f>
+        <v>9.75</v>
+      </c>
+      <c r="BC13" s="41">
+        <f>AT13*0.01</f>
+        <v>9.75</v>
+      </c>
+      <c r="BD13" s="41">
+        <f>AU13*0.01</f>
+        <v>9.75</v>
+      </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A14" s="19">
         <v>43179</v>
       </c>
@@ -2062,36 +2689,36 @@
         <v>1</v>
       </c>
       <c r="J14" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1000</v>
       </c>
       <c r="P14" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>200</v>
       </c>
       <c r="Q14" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="R14" s="9">
-        <f t="shared" si="10"/>
-        <v>200</v>
-      </c>
-      <c r="S14" s="9">
         <f t="shared" si="11"/>
         <v>200</v>
       </c>
-      <c r="T14" s="9">
+      <c r="S14" s="9">
         <f t="shared" si="12"/>
         <v>200</v>
       </c>
-      <c r="U14" s="9">
+      <c r="T14" s="9">
         <f t="shared" si="13"/>
         <v>200</v>
       </c>
+      <c r="U14" s="9">
+        <f t="shared" si="14"/>
+        <v>200</v>
+      </c>
       <c r="V14" s="9"/>
       <c r="X14" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="Y14" s="2">
@@ -2114,8 +2741,60 @@
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
+      <c r="AP14" s="9">
+        <f t="shared" si="18"/>
+        <v>1075</v>
+      </c>
+      <c r="AQ14" s="9">
+        <f t="shared" si="19"/>
+        <v>900</v>
+      </c>
+      <c r="AR14" s="9">
+        <f t="shared" si="20"/>
+        <v>1175</v>
+      </c>
+      <c r="AS14" s="9">
+        <f t="shared" si="21"/>
+        <v>1175</v>
+      </c>
+      <c r="AT14" s="9">
+        <f t="shared" si="22"/>
+        <v>1175</v>
+      </c>
+      <c r="AU14" s="9">
+        <f t="shared" si="23"/>
+        <v>1175</v>
+      </c>
+      <c r="AV14" s="9">
+        <f t="shared" si="25"/>
+        <v>37575</v>
+      </c>
+      <c r="AY14" s="41">
+        <f>AP14*0.01</f>
+        <v>10.75</v>
+      </c>
+      <c r="AZ14" s="41">
+        <f>AQ14*0.01</f>
+        <v>9</v>
+      </c>
+      <c r="BA14" s="41">
+        <f>AR14*0.01</f>
+        <v>11.75</v>
+      </c>
+      <c r="BB14" s="41">
+        <f>AS14*0.01</f>
+        <v>11.75</v>
+      </c>
+      <c r="BC14" s="41">
+        <f>AT14*0.01</f>
+        <v>11.75</v>
+      </c>
+      <c r="BD14" s="41">
+        <f>AU14*0.01</f>
+        <v>11.75</v>
+      </c>
     </row>
-    <row r="15" spans="1:38" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A15" s="19">
         <v>43186</v>
       </c>
@@ -2144,36 +2823,36 @@
         <v>1</v>
       </c>
       <c r="J15" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>300</v>
       </c>
       <c r="P15" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>50</v>
       </c>
       <c r="Q15" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>50</v>
       </c>
       <c r="R15" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>50</v>
       </c>
       <c r="S15" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>50</v>
       </c>
       <c r="T15" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>50</v>
       </c>
       <c r="U15" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>50</v>
       </c>
       <c r="V15" s="9"/>
       <c r="X15" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.5</v>
       </c>
       <c r="Y15" s="2">
@@ -2196,8 +2875,60 @@
         <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
+      <c r="AP15" s="9">
+        <f t="shared" si="18"/>
+        <v>1125</v>
+      </c>
+      <c r="AQ15" s="9">
+        <f t="shared" si="19"/>
+        <v>950</v>
+      </c>
+      <c r="AR15" s="9">
+        <f t="shared" si="20"/>
+        <v>1225</v>
+      </c>
+      <c r="AS15" s="9">
+        <f t="shared" si="21"/>
+        <v>1225</v>
+      </c>
+      <c r="AT15" s="9">
+        <f t="shared" si="22"/>
+        <v>1225</v>
+      </c>
+      <c r="AU15" s="9">
+        <f t="shared" si="23"/>
+        <v>1225</v>
+      </c>
+      <c r="AV15" s="9">
+        <f t="shared" si="25"/>
+        <v>44550</v>
+      </c>
+      <c r="AY15" s="41">
+        <f>AP15*0.01</f>
+        <v>11.25</v>
+      </c>
+      <c r="AZ15" s="41">
+        <f>AQ15*0.01</f>
+        <v>9.5</v>
+      </c>
+      <c r="BA15" s="41">
+        <f>AR15*0.01</f>
+        <v>12.25</v>
+      </c>
+      <c r="BB15" s="41">
+        <f>AS15*0.01</f>
+        <v>12.25</v>
+      </c>
+      <c r="BC15" s="41">
+        <f>AT15*0.01</f>
+        <v>12.25</v>
+      </c>
+      <c r="BD15" s="41">
+        <f>AU15*0.01</f>
+        <v>12.25</v>
+      </c>
     </row>
-    <row r="16" spans="1:38" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:56" ht="27" x14ac:dyDescent="0.3">
       <c r="A16" s="19">
         <v>43195</v>
       </c>
@@ -2226,36 +2957,36 @@
         <v>1</v>
       </c>
       <c r="J16" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>600</v>
       </c>
       <c r="P16" s="9">
-        <f t="shared" si="8"/>
-        <v>100</v>
-      </c>
-      <c r="Q16" s="9">
         <f t="shared" si="9"/>
         <v>100</v>
       </c>
-      <c r="R16" s="9">
+      <c r="Q16" s="9">
         <f t="shared" si="10"/>
         <v>100</v>
       </c>
-      <c r="S16" s="9">
+      <c r="R16" s="9">
         <f t="shared" si="11"/>
         <v>100</v>
       </c>
-      <c r="T16" s="9">
+      <c r="S16" s="9">
         <f t="shared" si="12"/>
         <v>100</v>
       </c>
-      <c r="U16" s="9">
+      <c r="T16" s="9">
         <f t="shared" si="13"/>
         <v>100</v>
       </c>
+      <c r="U16" s="9">
+        <f t="shared" si="14"/>
+        <v>100</v>
+      </c>
       <c r="V16" s="9"/>
       <c r="X16" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="Y16" s="2">
@@ -2278,8 +3009,60 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
+      <c r="AP16" s="9">
+        <f t="shared" si="18"/>
+        <v>1225</v>
+      </c>
+      <c r="AQ16" s="9">
+        <f t="shared" si="19"/>
+        <v>1050</v>
+      </c>
+      <c r="AR16" s="9">
+        <f t="shared" si="20"/>
+        <v>1325</v>
+      </c>
+      <c r="AS16" s="9">
+        <f t="shared" si="21"/>
+        <v>1325</v>
+      </c>
+      <c r="AT16" s="9">
+        <f t="shared" si="22"/>
+        <v>1325</v>
+      </c>
+      <c r="AU16" s="9">
+        <f t="shared" si="23"/>
+        <v>1325</v>
+      </c>
+      <c r="AV16" s="9">
+        <f t="shared" si="25"/>
+        <v>52125</v>
+      </c>
+      <c r="AY16" s="41">
+        <f>AP16*0.01</f>
+        <v>12.25</v>
+      </c>
+      <c r="AZ16" s="41">
+        <f>AQ16*0.01</f>
+        <v>10.5</v>
+      </c>
+      <c r="BA16" s="41">
+        <f>AR16*0.01</f>
+        <v>13.25</v>
+      </c>
+      <c r="BB16" s="41">
+        <f>AS16*0.01</f>
+        <v>13.25</v>
+      </c>
+      <c r="BC16" s="41">
+        <f>AT16*0.01</f>
+        <v>13.25</v>
+      </c>
+      <c r="BD16" s="41">
+        <f>AU16*0.01</f>
+        <v>13.25</v>
+      </c>
     </row>
-    <row r="17" spans="1:30" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:56" ht="27" x14ac:dyDescent="0.3">
       <c r="A17" s="19">
         <v>43200</v>
       </c>
@@ -2308,36 +3091,36 @@
         <v>1</v>
       </c>
       <c r="J17" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>450</v>
       </c>
       <c r="P17" s="9">
-        <f t="shared" si="8"/>
-        <v>75</v>
-      </c>
-      <c r="Q17" s="9">
         <f t="shared" si="9"/>
         <v>75</v>
       </c>
-      <c r="R17" s="9">
+      <c r="Q17" s="9">
         <f t="shared" si="10"/>
         <v>75</v>
       </c>
-      <c r="S17" s="9">
+      <c r="R17" s="9">
         <f t="shared" si="11"/>
         <v>75</v>
       </c>
-      <c r="T17" s="9">
+      <c r="S17" s="9">
         <f t="shared" si="12"/>
         <v>75</v>
       </c>
-      <c r="U17" s="9">
+      <c r="T17" s="9">
         <f t="shared" si="13"/>
         <v>75</v>
       </c>
+      <c r="U17" s="9">
+        <f t="shared" si="14"/>
+        <v>75</v>
+      </c>
       <c r="V17" s="9"/>
       <c r="X17" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.75</v>
       </c>
       <c r="Y17" s="2">
@@ -2360,8 +3143,60 @@
         <f t="shared" si="5"/>
         <v>0.75</v>
       </c>
+      <c r="AP17" s="9">
+        <f t="shared" si="18"/>
+        <v>1300</v>
+      </c>
+      <c r="AQ17" s="9">
+        <f t="shared" si="19"/>
+        <v>1125</v>
+      </c>
+      <c r="AR17" s="9">
+        <f t="shared" si="20"/>
+        <v>1400</v>
+      </c>
+      <c r="AS17" s="9">
+        <f t="shared" si="21"/>
+        <v>1400</v>
+      </c>
+      <c r="AT17" s="9">
+        <f t="shared" si="22"/>
+        <v>1400</v>
+      </c>
+      <c r="AU17" s="9">
+        <f t="shared" si="23"/>
+        <v>1400</v>
+      </c>
+      <c r="AV17" s="9">
+        <f t="shared" si="25"/>
+        <v>60150</v>
+      </c>
+      <c r="AY17" s="41">
+        <f>AP17*0.01</f>
+        <v>13</v>
+      </c>
+      <c r="AZ17" s="41">
+        <f>AQ17*0.01</f>
+        <v>11.25</v>
+      </c>
+      <c r="BA17" s="41">
+        <f>AR17*0.01</f>
+        <v>14</v>
+      </c>
+      <c r="BB17" s="41">
+        <f>AS17*0.01</f>
+        <v>14</v>
+      </c>
+      <c r="BC17" s="41">
+        <f>AT17*0.01</f>
+        <v>14</v>
+      </c>
+      <c r="BD17" s="41">
+        <f>AU17*0.01</f>
+        <v>14</v>
+      </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A18" s="19">
         <v>43202</v>
       </c>
@@ -2390,32 +3225,32 @@
         <v>250</v>
       </c>
       <c r="P18" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>50</v>
       </c>
       <c r="Q18" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="R18" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>50</v>
       </c>
       <c r="S18" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>50</v>
       </c>
       <c r="T18" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>50</v>
       </c>
       <c r="U18" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>50</v>
       </c>
       <c r="V18" s="9"/>
       <c r="X18" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.5</v>
       </c>
       <c r="Y18" s="2">
@@ -2438,8 +3273,60 @@
         <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
+      <c r="AP18" s="9">
+        <f t="shared" si="18"/>
+        <v>1350</v>
+      </c>
+      <c r="AQ18" s="9">
+        <f t="shared" si="19"/>
+        <v>1125</v>
+      </c>
+      <c r="AR18" s="9">
+        <f t="shared" si="20"/>
+        <v>1450</v>
+      </c>
+      <c r="AS18" s="9">
+        <f t="shared" si="21"/>
+        <v>1450</v>
+      </c>
+      <c r="AT18" s="9">
+        <f t="shared" si="22"/>
+        <v>1450</v>
+      </c>
+      <c r="AU18" s="9">
+        <f t="shared" si="23"/>
+        <v>1450</v>
+      </c>
+      <c r="AV18" s="9">
+        <f t="shared" si="25"/>
+        <v>68425</v>
+      </c>
+      <c r="AY18" s="41">
+        <f>AP18*0.01</f>
+        <v>13.5</v>
+      </c>
+      <c r="AZ18" s="41">
+        <f>AQ18*0.01</f>
+        <v>11.25</v>
+      </c>
+      <c r="BA18" s="41">
+        <f>AR18*0.01</f>
+        <v>14.5</v>
+      </c>
+      <c r="BB18" s="41">
+        <f>AS18*0.01</f>
+        <v>14.5</v>
+      </c>
+      <c r="BC18" s="41">
+        <f>AT18*0.01</f>
+        <v>14.5</v>
+      </c>
+      <c r="BD18" s="41">
+        <f>AU18*0.01</f>
+        <v>14.5</v>
+      </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A19" s="19"/>
       <c r="B19" s="18"/>
       <c r="C19" s="20"/>
@@ -2450,36 +3337,36 @@
       <c r="H19" s="16"/>
       <c r="I19" s="16"/>
       <c r="J19" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P19" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q19" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="R19" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S19" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="T19" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U19" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="V19" s="9"/>
       <c r="X19" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Y19" s="2">
@@ -2502,8 +3389,60 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AP19" s="9">
+        <f t="shared" si="18"/>
+        <v>1350</v>
+      </c>
+      <c r="AQ19" s="9">
+        <f t="shared" si="19"/>
+        <v>1125</v>
+      </c>
+      <c r="AR19" s="9">
+        <f t="shared" si="20"/>
+        <v>1450</v>
+      </c>
+      <c r="AS19" s="9">
+        <f t="shared" si="21"/>
+        <v>1450</v>
+      </c>
+      <c r="AT19" s="9">
+        <f t="shared" si="22"/>
+        <v>1450</v>
+      </c>
+      <c r="AU19" s="9">
+        <f t="shared" si="23"/>
+        <v>1450</v>
+      </c>
+      <c r="AV19" s="9">
+        <f t="shared" si="25"/>
+        <v>76700</v>
+      </c>
+      <c r="AY19" s="41">
+        <f>AP19*0.01</f>
+        <v>13.5</v>
+      </c>
+      <c r="AZ19" s="41">
+        <f>AQ19*0.01</f>
+        <v>11.25</v>
+      </c>
+      <c r="BA19" s="41">
+        <f>AR19*0.01</f>
+        <v>14.5</v>
+      </c>
+      <c r="BB19" s="41">
+        <f>AS19*0.01</f>
+        <v>14.5</v>
+      </c>
+      <c r="BC19" s="41">
+        <f>AT19*0.01</f>
+        <v>14.5</v>
+      </c>
+      <c r="BD19" s="41">
+        <f>AU19*0.01</f>
+        <v>14.5</v>
+      </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A20" s="19"/>
       <c r="B20" s="18"/>
       <c r="C20" s="20"/>
@@ -2514,36 +3453,36 @@
       <c r="H20" s="16"/>
       <c r="I20" s="16"/>
       <c r="J20" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P20" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q20" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="R20" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S20" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="T20" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U20" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="V20" s="9"/>
       <c r="X20" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Y20" s="2">
@@ -2566,8 +3505,60 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AP20" s="9">
+        <f t="shared" si="18"/>
+        <v>1350</v>
+      </c>
+      <c r="AQ20" s="9">
+        <f t="shared" si="19"/>
+        <v>1125</v>
+      </c>
+      <c r="AR20" s="9">
+        <f t="shared" si="20"/>
+        <v>1450</v>
+      </c>
+      <c r="AS20" s="9">
+        <f t="shared" si="21"/>
+        <v>1450</v>
+      </c>
+      <c r="AT20" s="9">
+        <f t="shared" si="22"/>
+        <v>1450</v>
+      </c>
+      <c r="AU20" s="9">
+        <f t="shared" si="23"/>
+        <v>1450</v>
+      </c>
+      <c r="AV20" s="9">
+        <f t="shared" si="25"/>
+        <v>84975</v>
+      </c>
+      <c r="AY20" s="41">
+        <f>AP20*0.01</f>
+        <v>13.5</v>
+      </c>
+      <c r="AZ20" s="41">
+        <f>AQ20*0.01</f>
+        <v>11.25</v>
+      </c>
+      <c r="BA20" s="41">
+        <f>AR20*0.01</f>
+        <v>14.5</v>
+      </c>
+      <c r="BB20" s="41">
+        <f>AS20*0.01</f>
+        <v>14.5</v>
+      </c>
+      <c r="BC20" s="41">
+        <f>AT20*0.01</f>
+        <v>14.5</v>
+      </c>
+      <c r="BD20" s="41">
+        <f>AU20*0.01</f>
+        <v>14.5</v>
+      </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A21" s="19"/>
       <c r="B21" s="18"/>
       <c r="C21" s="20"/>
@@ -2578,36 +3569,36 @@
       <c r="H21" s="16"/>
       <c r="I21" s="16"/>
       <c r="J21" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P21" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q21" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="R21" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S21" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="T21" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U21" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="V21" s="9"/>
       <c r="X21" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Y21" s="2">
@@ -2630,8 +3621,60 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AP21" s="9">
+        <f t="shared" si="18"/>
+        <v>1350</v>
+      </c>
+      <c r="AQ21" s="9">
+        <f t="shared" si="19"/>
+        <v>1125</v>
+      </c>
+      <c r="AR21" s="9">
+        <f t="shared" si="20"/>
+        <v>1450</v>
+      </c>
+      <c r="AS21" s="9">
+        <f t="shared" si="21"/>
+        <v>1450</v>
+      </c>
+      <c r="AT21" s="9">
+        <f t="shared" si="22"/>
+        <v>1450</v>
+      </c>
+      <c r="AU21" s="9">
+        <f t="shared" si="23"/>
+        <v>1450</v>
+      </c>
+      <c r="AV21" s="9">
+        <f t="shared" si="25"/>
+        <v>93250</v>
+      </c>
+      <c r="AY21" s="41">
+        <f>AP21*0.01</f>
+        <v>13.5</v>
+      </c>
+      <c r="AZ21" s="41">
+        <f>AQ21*0.01</f>
+        <v>11.25</v>
+      </c>
+      <c r="BA21" s="41">
+        <f>AR21*0.01</f>
+        <v>14.5</v>
+      </c>
+      <c r="BB21" s="41">
+        <f>AS21*0.01</f>
+        <v>14.5</v>
+      </c>
+      <c r="BC21" s="41">
+        <f>AT21*0.01</f>
+        <v>14.5</v>
+      </c>
+      <c r="BD21" s="41">
+        <f>AU21*0.01</f>
+        <v>14.5</v>
+      </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A22" s="19"/>
       <c r="B22" s="18"/>
       <c r="C22" s="20"/>
@@ -2642,36 +3685,36 @@
       <c r="H22" s="16"/>
       <c r="I22" s="16"/>
       <c r="J22" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P22" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q22" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="R22" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S22" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="T22" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U22" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="V22" s="9"/>
       <c r="X22" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Y22" s="2">
@@ -2694,8 +3737,60 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AP22" s="9">
+        <f t="shared" si="18"/>
+        <v>1350</v>
+      </c>
+      <c r="AQ22" s="9">
+        <f t="shared" si="19"/>
+        <v>1125</v>
+      </c>
+      <c r="AR22" s="9">
+        <f t="shared" si="20"/>
+        <v>1450</v>
+      </c>
+      <c r="AS22" s="9">
+        <f t="shared" si="21"/>
+        <v>1450</v>
+      </c>
+      <c r="AT22" s="9">
+        <f t="shared" si="22"/>
+        <v>1450</v>
+      </c>
+      <c r="AU22" s="9">
+        <f t="shared" si="23"/>
+        <v>1450</v>
+      </c>
+      <c r="AV22" s="9">
+        <f t="shared" si="25"/>
+        <v>101525</v>
+      </c>
+      <c r="AY22" s="41">
+        <f>AP22*0.01</f>
+        <v>13.5</v>
+      </c>
+      <c r="AZ22" s="41">
+        <f>AQ22*0.01</f>
+        <v>11.25</v>
+      </c>
+      <c r="BA22" s="41">
+        <f>AR22*0.01</f>
+        <v>14.5</v>
+      </c>
+      <c r="BB22" s="41">
+        <f>AS22*0.01</f>
+        <v>14.5</v>
+      </c>
+      <c r="BC22" s="41">
+        <f>AT22*0.01</f>
+        <v>14.5</v>
+      </c>
+      <c r="BD22" s="41">
+        <f>AU22*0.01</f>
+        <v>14.5</v>
+      </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A23" s="19"/>
       <c r="B23" s="18"/>
       <c r="C23" s="20"/>
@@ -2706,36 +3801,36 @@
       <c r="H23" s="16"/>
       <c r="I23" s="16"/>
       <c r="J23" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P23" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q23" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="R23" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S23" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="T23" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U23" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="V23" s="9"/>
       <c r="X23" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Y23" s="2">
@@ -2758,8 +3853,60 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AP23" s="9">
+        <f t="shared" si="18"/>
+        <v>1350</v>
+      </c>
+      <c r="AQ23" s="9">
+        <f t="shared" si="19"/>
+        <v>1125</v>
+      </c>
+      <c r="AR23" s="9">
+        <f t="shared" si="20"/>
+        <v>1450</v>
+      </c>
+      <c r="AS23" s="9">
+        <f t="shared" si="21"/>
+        <v>1450</v>
+      </c>
+      <c r="AT23" s="9">
+        <f t="shared" si="22"/>
+        <v>1450</v>
+      </c>
+      <c r="AU23" s="9">
+        <f t="shared" si="23"/>
+        <v>1450</v>
+      </c>
+      <c r="AV23" s="9">
+        <f t="shared" si="25"/>
+        <v>109800</v>
+      </c>
+      <c r="AY23" s="41">
+        <f>AP23*0.01</f>
+        <v>13.5</v>
+      </c>
+      <c r="AZ23" s="41">
+        <f>AQ23*0.01</f>
+        <v>11.25</v>
+      </c>
+      <c r="BA23" s="41">
+        <f>AR23*0.01</f>
+        <v>14.5</v>
+      </c>
+      <c r="BB23" s="41">
+        <f>AS23*0.01</f>
+        <v>14.5</v>
+      </c>
+      <c r="BC23" s="41">
+        <f>AT23*0.01</f>
+        <v>14.5</v>
+      </c>
+      <c r="BD23" s="41">
+        <f>AU23*0.01</f>
+        <v>14.5</v>
+      </c>
     </row>
-    <row r="24" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="19"/>
       <c r="B24" s="18"/>
       <c r="C24" s="17"/>
@@ -2770,36 +3917,36 @@
       <c r="H24" s="16"/>
       <c r="I24" s="16"/>
       <c r="J24" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P24" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q24" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="R24" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S24" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="T24" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U24" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="V24" s="9"/>
       <c r="X24" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Y24" s="2">
@@ -2822,8 +3969,60 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AP24" s="9">
+        <f t="shared" si="18"/>
+        <v>1350</v>
+      </c>
+      <c r="AQ24" s="9">
+        <f t="shared" si="19"/>
+        <v>1125</v>
+      </c>
+      <c r="AR24" s="9">
+        <f t="shared" si="20"/>
+        <v>1450</v>
+      </c>
+      <c r="AS24" s="9">
+        <f t="shared" si="21"/>
+        <v>1450</v>
+      </c>
+      <c r="AT24" s="9">
+        <f t="shared" si="22"/>
+        <v>1450</v>
+      </c>
+      <c r="AU24" s="9">
+        <f t="shared" si="23"/>
+        <v>1450</v>
+      </c>
+      <c r="AV24" s="9">
+        <f t="shared" si="25"/>
+        <v>118075</v>
+      </c>
+      <c r="AY24" s="41">
+        <f>AP24*0.01</f>
+        <v>13.5</v>
+      </c>
+      <c r="AZ24" s="41">
+        <f>AQ24*0.01</f>
+        <v>11.25</v>
+      </c>
+      <c r="BA24" s="41">
+        <f>AR24*0.01</f>
+        <v>14.5</v>
+      </c>
+      <c r="BB24" s="41">
+        <f>AS24*0.01</f>
+        <v>14.5</v>
+      </c>
+      <c r="BC24" s="41">
+        <f>AT24*0.01</f>
+        <v>14.5</v>
+      </c>
+      <c r="BD24" s="41">
+        <f>AU24*0.01</f>
+        <v>14.5</v>
+      </c>
     </row>
-    <row r="25" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="14"/>
       <c r="B25" s="13" t="s">
         <v>8</v>
@@ -2833,27 +4032,27 @@
         <v>14.5</v>
       </c>
       <c r="D25" s="11">
-        <f t="shared" ref="D25:I25" si="20">X$25</f>
+        <f t="shared" ref="D25:I25" si="29">X$25</f>
         <v>13.5</v>
       </c>
       <c r="E25" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>11.25</v>
       </c>
       <c r="F25" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>14.5</v>
       </c>
       <c r="G25" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>14.5</v>
       </c>
       <c r="H25" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>14.5</v>
       </c>
       <c r="I25" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>14.5</v>
       </c>
       <c r="J25" s="10">
@@ -2864,27 +4063,27 @@
         <v>8</v>
       </c>
       <c r="P25" s="9">
-        <f t="shared" ref="P25:U25" si="21">SUM(P3:P24)</f>
+        <f t="shared" ref="P25:U25" si="30">SUM(P3:P24)</f>
         <v>1350</v>
       </c>
       <c r="Q25" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>1125</v>
       </c>
       <c r="R25" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>1450</v>
       </c>
       <c r="S25" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>1450</v>
       </c>
       <c r="T25" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>1450</v>
       </c>
       <c r="U25" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>1450</v>
       </c>
       <c r="V25" s="9">
@@ -2892,35 +4091,48 @@
         <v>8275</v>
       </c>
       <c r="X25" s="2">
-        <f t="shared" ref="X25:AC25" si="22">SUM(X3:X24)</f>
+        <f t="shared" ref="X25:AC25" si="31">SUM(X3:X24)</f>
         <v>13.5</v>
       </c>
       <c r="Y25" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="31"/>
         <v>11.25</v>
       </c>
       <c r="Z25" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="31"/>
         <v>14.5</v>
       </c>
       <c r="AA25" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="31"/>
         <v>14.5</v>
       </c>
       <c r="AB25" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="31"/>
         <v>14.5</v>
       </c>
       <c r="AC25" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="31"/>
         <v>14.5</v>
       </c>
       <c r="AD25" s="2">
         <f>SUM(X25:AC25)</f>
         <v>82.75</v>
       </c>
+      <c r="AP25" s="9"/>
+      <c r="AQ25" s="9"/>
+      <c r="AR25" s="9"/>
+      <c r="AS25" s="9"/>
+      <c r="AT25" s="9"/>
+      <c r="AU25" s="9"/>
+      <c r="AV25" s="9"/>
+      <c r="AX25" s="41"/>
+      <c r="AY25" s="41"/>
+      <c r="AZ25" s="41"/>
+      <c r="BA25" s="41"/>
+      <c r="BB25" s="41"/>
+      <c r="BC25" s="41"/>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:56" x14ac:dyDescent="0.3">
       <c r="B26" s="8"/>
       <c r="C26" s="7" t="s">
         <v>7</v>
